--- a/raw_data.xlsx
+++ b/raw_data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FF96FFA-F496-4CA9-BD70-FD254A958D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3293582-0B27-41CF-AEEB-D1E48C8CAE32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="T1" sheetId="2" r:id="rId1"/>
@@ -14,12 +14,12 @@
     <sheet name="T4" sheetId="5" r:id="rId4"/>
     <sheet name="T5" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="182">
   <si>
     <t/>
   </si>
@@ -562,6 +562,9 @@
   </si>
   <si>
     <t>Resident Households → Lone Parent → With Youngest Child Aged 16 Years And Over (Number):</t>
+  </si>
+  <si>
+    <t>Type</t>
   </si>
 </sst>
 </file>
@@ -620,7 +623,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -639,6 +642,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -980,7 +984,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AP45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -2545,22 +2549,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Z102"/>
+  <dimension ref="A1:AA97"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:XFD32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="26" width="24" customWidth="1"/>
+    <col min="1" max="27" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -2633,2804 +2636,2485 @@
       <c r="Z1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="Z10" s="1" t="s">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AA10" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="H11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="I11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="J11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="K11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="L11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="M11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M11" s="3" t="s">
+      <c r="N11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N11" s="3" t="s">
+      <c r="O11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O11" s="3" t="s">
+      <c r="P11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P11" s="3" t="s">
+      <c r="Q11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Q11" s="3" t="s">
+      <c r="R11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R11" s="3" t="s">
+      <c r="S11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="S11" s="3" t="s">
+      <c r="T11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T11" s="3" t="s">
+      <c r="U11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="U11" s="3" t="s">
+      <c r="V11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="V11" s="3" t="s">
+      <c r="W11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="W11" s="3" t="s">
+      <c r="X11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="X11" s="3" t="s">
+      <c r="Y11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="Y11" s="3" t="s">
+      <c r="Z11" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="Z11" s="3" t="s">
+      <c r="AA11" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="5">
-        <v>1399600</v>
-      </c>
       <c r="C12" s="5">
-        <v>1390600</v>
+        <v>638700</v>
       </c>
       <c r="D12" s="5">
-        <v>1372600</v>
+        <v>643600</v>
       </c>
       <c r="E12" s="5">
-        <v>1372400</v>
+        <v>655000</v>
       </c>
       <c r="F12" s="5">
-        <v>1325300</v>
+        <v>643200</v>
       </c>
       <c r="G12" s="5">
-        <v>1289900</v>
+        <v>663100</v>
       </c>
       <c r="H12" s="5">
-        <v>1263600</v>
+        <v>664200</v>
       </c>
       <c r="I12" s="5">
-        <v>1225300</v>
+        <v>663000</v>
       </c>
       <c r="J12" s="5">
-        <v>1200000</v>
+        <v>665700</v>
       </c>
       <c r="K12" s="5">
-        <v>1174500</v>
+        <v>659800</v>
       </c>
       <c r="L12" s="5">
-        <v>1152000</v>
+        <v>666500</v>
       </c>
       <c r="M12" s="5">
-        <v>1146200</v>
+        <v>658100</v>
       </c>
       <c r="N12" s="5">
-        <v>1145900</v>
+        <v>648000</v>
       </c>
       <c r="O12" s="5">
-        <v>1119600</v>
+        <v>642100</v>
       </c>
       <c r="P12" s="5">
-        <v>1093100</v>
+        <v>644100</v>
       </c>
       <c r="Q12" s="5">
-        <v>1074800</v>
+        <v>634800</v>
       </c>
       <c r="R12" s="5">
-        <v>1054100</v>
+        <v>621800</v>
       </c>
       <c r="S12" s="5">
-        <v>1024500</v>
+        <v>611800</v>
       </c>
       <c r="T12" s="5">
-        <v>1003800</v>
+        <v>604100</v>
       </c>
       <c r="U12" s="5">
-        <v>989000</v>
+        <v>598300</v>
       </c>
       <c r="V12" s="5">
-        <v>964600</v>
+        <v>588300</v>
       </c>
       <c r="W12" s="5">
-        <v>934400</v>
+        <v>591000</v>
       </c>
       <c r="X12" s="5">
-        <v>915100</v>
+        <v>582900</v>
       </c>
       <c r="Y12" s="5">
-        <v>768400</v>
+        <v>569500</v>
       </c>
       <c r="Z12" s="5">
-        <v>661700</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
+        <v>518800</v>
+      </c>
+      <c r="AA12" s="5">
+        <v>439800</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="5">
+        <v>248500</v>
+      </c>
+      <c r="D13" s="5">
+        <v>247000</v>
+      </c>
+      <c r="E13" s="5">
+        <v>228400</v>
+      </c>
+      <c r="F13" s="5">
+        <v>261500</v>
+      </c>
+      <c r="G13" s="5">
+        <v>229300</v>
+      </c>
+      <c r="H13" s="5">
+        <v>219800</v>
+      </c>
+      <c r="I13" s="5">
+        <v>209900</v>
+      </c>
+      <c r="J13" s="5">
+        <v>188100</v>
+      </c>
+      <c r="K13" s="5">
+        <v>189300</v>
+      </c>
+      <c r="L13" s="5">
+        <v>170600</v>
+      </c>
+      <c r="M13" s="5">
+        <v>173200</v>
+      </c>
+      <c r="N13" s="5">
+        <v>177600</v>
+      </c>
+      <c r="O13" s="5">
+        <v>157200</v>
+      </c>
+      <c r="P13" s="5">
+        <v>161000</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>160400</v>
+      </c>
+      <c r="R13" s="5">
+        <v>152100</v>
+      </c>
+      <c r="S13" s="5">
+        <v>150500</v>
+      </c>
+      <c r="T13" s="5">
+        <v>135800</v>
+      </c>
+      <c r="U13" s="5">
+        <v>138800</v>
+      </c>
+      <c r="V13" s="5">
+        <v>138700</v>
+      </c>
+      <c r="W13" s="5">
+        <v>128500</v>
+      </c>
+      <c r="X13" s="5">
+        <v>119000</v>
+      </c>
+      <c r="Y13" s="5">
+        <v>109800</v>
+      </c>
+      <c r="Z13" s="5">
+        <v>68400</v>
+      </c>
+      <c r="AA13" s="5">
+        <v>55300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="5">
+        <v>82400</v>
+      </c>
+      <c r="D14" s="5">
+        <v>85300</v>
+      </c>
+      <c r="E14" s="5">
+        <v>89800</v>
+      </c>
+      <c r="F14" s="5">
+        <v>91100</v>
+      </c>
+      <c r="G14" s="5">
+        <v>96100</v>
+      </c>
+      <c r="H14" s="5">
+        <v>90500</v>
+      </c>
+      <c r="I14" s="5">
+        <v>92800</v>
+      </c>
+      <c r="J14" s="5">
+        <v>94000</v>
+      </c>
+      <c r="K14" s="5">
+        <v>87400</v>
+      </c>
+      <c r="L14" s="5">
+        <v>88200</v>
+      </c>
+      <c r="M14" s="5">
+        <v>82700</v>
+      </c>
+      <c r="N14" s="5">
+        <v>80700</v>
+      </c>
+      <c r="O14" s="5">
+        <v>83200</v>
+      </c>
+      <c r="P14" s="5">
+        <v>79500</v>
+      </c>
+      <c r="Q14" s="5">
+        <v>74900</v>
+      </c>
+      <c r="R14" s="5">
+        <v>75300</v>
+      </c>
+      <c r="S14" s="5">
+        <v>79000</v>
+      </c>
+      <c r="T14" s="5">
+        <v>70100</v>
+      </c>
+      <c r="U14" s="5">
+        <v>69600</v>
+      </c>
+      <c r="V14" s="5">
+        <v>63600</v>
+      </c>
+      <c r="W14" s="5">
+        <v>70000</v>
+      </c>
+      <c r="X14" s="5">
+        <v>70900</v>
+      </c>
+      <c r="Y14" s="5">
+        <v>66300</v>
+      </c>
+      <c r="Z14" s="5">
+        <v>61800</v>
+      </c>
+      <c r="AA14" s="5">
+        <v>57100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="5">
+        <v>217300</v>
+      </c>
+      <c r="D15" s="5">
+        <v>217400</v>
+      </c>
+      <c r="E15" s="5">
+        <v>220300</v>
+      </c>
+      <c r="F15" s="5">
+        <v>208000</v>
+      </c>
+      <c r="G15" s="5">
+        <v>185400</v>
+      </c>
+      <c r="H15" s="5">
+        <v>167900</v>
+      </c>
+      <c r="I15" s="5">
+        <v>156200</v>
+      </c>
+      <c r="J15" s="5">
+        <v>146000</v>
+      </c>
+      <c r="K15" s="5">
+        <v>134800</v>
+      </c>
+      <c r="L15" s="5">
+        <v>124400</v>
+      </c>
+      <c r="M15" s="5">
+        <v>109500</v>
+      </c>
+      <c r="N15" s="5">
+        <v>114000</v>
+      </c>
+      <c r="O15" s="5">
+        <v>139900</v>
+      </c>
+      <c r="P15" s="5">
+        <v>115700</v>
+      </c>
+      <c r="Q15" s="5">
+        <v>109700</v>
+      </c>
+      <c r="R15" s="5">
+        <v>116400</v>
+      </c>
+      <c r="S15" s="5">
+        <v>112500</v>
+      </c>
+      <c r="T15" s="5">
+        <v>103300</v>
+      </c>
+      <c r="U15" s="5">
+        <v>96300</v>
+      </c>
+      <c r="V15" s="5">
+        <v>94800</v>
+      </c>
+      <c r="W15" s="5">
+        <v>82700</v>
+      </c>
+      <c r="X15" s="5">
+        <v>73200</v>
+      </c>
+      <c r="Y15" s="5">
+        <v>75400</v>
+      </c>
+      <c r="Z15" s="5">
+        <v>38100</v>
+      </c>
+      <c r="AA15" s="5">
+        <v>34600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="5">
+        <v>212600</v>
+      </c>
+      <c r="D16" s="5">
+        <v>197400</v>
+      </c>
+      <c r="E16" s="5">
+        <v>179100</v>
+      </c>
+      <c r="F16" s="5">
+        <v>168600</v>
+      </c>
+      <c r="G16" s="5">
+        <v>151500</v>
+      </c>
+      <c r="H16" s="5">
+        <v>147600</v>
+      </c>
+      <c r="I16" s="5">
+        <v>141700</v>
+      </c>
+      <c r="J16" s="5">
+        <v>131600</v>
+      </c>
+      <c r="K16" s="5">
+        <v>128700</v>
+      </c>
+      <c r="L16" s="5">
+        <v>124800</v>
+      </c>
+      <c r="M16" s="5">
+        <v>128600</v>
+      </c>
+      <c r="N16" s="5">
+        <v>126000</v>
+      </c>
+      <c r="O16" s="5">
+        <v>123600</v>
+      </c>
+      <c r="P16" s="5">
+        <v>119300</v>
+      </c>
+      <c r="Q16" s="5">
+        <v>113300</v>
+      </c>
+      <c r="R16" s="5">
+        <v>109100</v>
+      </c>
+      <c r="S16" s="5">
+        <v>100200</v>
+      </c>
+      <c r="T16" s="5">
+        <v>111200</v>
+      </c>
+      <c r="U16" s="5">
+        <v>100800</v>
+      </c>
+      <c r="V16" s="5">
+        <v>103500</v>
+      </c>
+      <c r="W16" s="5">
+        <v>92400</v>
+      </c>
+      <c r="X16" s="5">
+        <v>88300</v>
+      </c>
+      <c r="Y16" s="5">
+        <v>94100</v>
+      </c>
+      <c r="Z16" s="5">
+        <v>81200</v>
+      </c>
+      <c r="AA16" s="5">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B13" s="5">
-        <v>638700</v>
-      </c>
-      <c r="C13" s="5">
-        <v>643600</v>
-      </c>
-      <c r="D13" s="5">
-        <v>655000</v>
-      </c>
-      <c r="E13" s="5">
-        <v>643200</v>
-      </c>
-      <c r="F13" s="5">
-        <v>663100</v>
-      </c>
-      <c r="G13" s="5">
-        <v>664200</v>
-      </c>
-      <c r="H13" s="5">
-        <v>663000</v>
-      </c>
-      <c r="I13" s="5">
-        <v>665700</v>
-      </c>
-      <c r="J13" s="5">
-        <v>659800</v>
-      </c>
-      <c r="K13" s="5">
-        <v>666500</v>
-      </c>
-      <c r="L13" s="5">
-        <v>658100</v>
-      </c>
-      <c r="M13" s="5">
-        <v>648000</v>
-      </c>
-      <c r="N13" s="5">
-        <v>642100</v>
-      </c>
-      <c r="O13" s="5">
-        <v>644100</v>
-      </c>
-      <c r="P13" s="5">
-        <v>634800</v>
-      </c>
-      <c r="Q13" s="5">
-        <v>621800</v>
-      </c>
-      <c r="R13" s="5">
-        <v>611800</v>
-      </c>
-      <c r="S13" s="5">
-        <v>604100</v>
-      </c>
-      <c r="T13" s="5">
-        <v>598300</v>
-      </c>
-      <c r="U13" s="5">
-        <v>588300</v>
-      </c>
-      <c r="V13" s="5">
-        <v>591000</v>
-      </c>
-      <c r="W13" s="5">
-        <v>582900</v>
-      </c>
-      <c r="X13" s="5">
-        <v>569500</v>
-      </c>
-      <c r="Y13" s="5">
-        <v>518800</v>
-      </c>
-      <c r="Z13" s="5">
-        <v>439800</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A14" s="4" t="s">
+      <c r="B17" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="5">
+        <v>45800</v>
+      </c>
+      <c r="D17" s="5">
+        <v>43600</v>
+      </c>
+      <c r="E17" s="5">
+        <v>42800</v>
+      </c>
+      <c r="F17" s="5">
+        <v>43700</v>
+      </c>
+      <c r="G17" s="5">
+        <v>43800</v>
+      </c>
+      <c r="H17" s="5">
+        <v>48500</v>
+      </c>
+      <c r="I17" s="5">
+        <v>46300</v>
+      </c>
+      <c r="J17" s="5">
+        <v>44300</v>
+      </c>
+      <c r="K17" s="5">
+        <v>42600</v>
+      </c>
+      <c r="L17" s="5">
+        <v>44600</v>
+      </c>
+      <c r="M17" s="5">
+        <v>39800</v>
+      </c>
+      <c r="N17" s="5">
+        <v>42300</v>
+      </c>
+      <c r="O17" s="5">
+        <v>47300</v>
+      </c>
+      <c r="P17" s="5">
+        <v>47300</v>
+      </c>
+      <c r="Q17" s="5">
+        <v>46700</v>
+      </c>
+      <c r="R17" s="5">
+        <v>52100</v>
+      </c>
+      <c r="S17" s="5">
+        <v>48700</v>
+      </c>
+      <c r="T17" s="5">
+        <v>54800</v>
+      </c>
+      <c r="U17" s="5">
+        <v>54400</v>
+      </c>
+      <c r="V17" s="5">
+        <v>55200</v>
+      </c>
+      <c r="W17" s="5">
+        <v>58100</v>
+      </c>
+      <c r="X17" s="5">
+        <v>65500</v>
+      </c>
+      <c r="Y17" s="5">
+        <v>66800</v>
+      </c>
+      <c r="Z17" s="5">
+        <v>70500</v>
+      </c>
+      <c r="AA17" s="5">
+        <v>84400</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B14" s="5">
-        <v>248500</v>
-      </c>
-      <c r="C14" s="5">
-        <v>247000</v>
-      </c>
-      <c r="D14" s="5">
-        <v>228400</v>
-      </c>
-      <c r="E14" s="5">
-        <v>261500</v>
-      </c>
-      <c r="F14" s="5">
-        <v>229300</v>
-      </c>
-      <c r="G14" s="5">
-        <v>219800</v>
-      </c>
-      <c r="H14" s="5">
-        <v>209900</v>
-      </c>
-      <c r="I14" s="5">
-        <v>188100</v>
-      </c>
-      <c r="J14" s="5">
-        <v>189300</v>
-      </c>
-      <c r="K14" s="5">
-        <v>170600</v>
-      </c>
-      <c r="L14" s="5">
-        <v>173200</v>
-      </c>
-      <c r="M14" s="5">
-        <v>177600</v>
-      </c>
-      <c r="N14" s="5">
-        <v>157200</v>
-      </c>
-      <c r="O14" s="5">
-        <v>161000</v>
-      </c>
-      <c r="P14" s="5">
-        <v>160400</v>
-      </c>
-      <c r="Q14" s="5">
-        <v>152100</v>
-      </c>
-      <c r="R14" s="5">
-        <v>150500</v>
-      </c>
-      <c r="S14" s="5">
-        <v>135800</v>
-      </c>
-      <c r="T14" s="5">
-        <v>138800</v>
-      </c>
-      <c r="U14" s="5">
-        <v>138700</v>
-      </c>
-      <c r="V14" s="5">
-        <v>128500</v>
-      </c>
-      <c r="W14" s="5">
-        <v>119000</v>
-      </c>
-      <c r="X14" s="5">
-        <v>109800</v>
-      </c>
-      <c r="Y14" s="5">
-        <v>68400</v>
-      </c>
-      <c r="Z14" s="5">
+      <c r="B18" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="5">
+        <v>31700</v>
+      </c>
+      <c r="D18" s="5">
+        <v>33100</v>
+      </c>
+      <c r="E18" s="5">
+        <v>33100</v>
+      </c>
+      <c r="F18" s="5">
+        <v>36300</v>
+      </c>
+      <c r="G18" s="5">
+        <v>34500</v>
+      </c>
+      <c r="H18" s="5">
+        <v>30400</v>
+      </c>
+      <c r="I18" s="5">
+        <v>34300</v>
+      </c>
+      <c r="J18" s="5">
+        <v>28000</v>
+      </c>
+      <c r="K18" s="5">
+        <v>28300</v>
+      </c>
+      <c r="L18" s="5">
+        <v>27300</v>
+      </c>
+      <c r="M18" s="5">
+        <v>31200</v>
+      </c>
+      <c r="N18" s="5">
+        <v>35700</v>
+      </c>
+      <c r="O18" s="5">
+        <v>35500</v>
+      </c>
+      <c r="P18" s="5">
+        <v>34300</v>
+      </c>
+      <c r="Q18" s="5">
+        <v>39200</v>
+      </c>
+      <c r="R18" s="5">
+        <v>38000</v>
+      </c>
+      <c r="S18" s="5">
+        <v>36900</v>
+      </c>
+      <c r="T18" s="5">
+        <v>42000</v>
+      </c>
+      <c r="U18" s="5">
+        <v>41000</v>
+      </c>
+      <c r="V18" s="5">
+        <v>43700</v>
+      </c>
+      <c r="W18" s="5">
+        <v>39800</v>
+      </c>
+      <c r="X18" s="5">
+        <v>40300</v>
+      </c>
+      <c r="Y18" s="5">
+        <v>40900</v>
+      </c>
+      <c r="Z18" s="5">
+        <v>26600</v>
+      </c>
+      <c r="AA18" s="5">
+        <v>29200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="5">
+        <v>3500</v>
+      </c>
+      <c r="D19" s="5">
+        <v>3100</v>
+      </c>
+      <c r="E19" s="5">
+        <v>3100</v>
+      </c>
+      <c r="F19" s="5">
+        <v>2900</v>
+      </c>
+      <c r="G19" s="5">
+        <v>2700</v>
+      </c>
+      <c r="H19" s="5">
+        <v>2900</v>
+      </c>
+      <c r="I19" s="5">
+        <v>2400</v>
+      </c>
+      <c r="J19" s="5">
+        <v>2900</v>
+      </c>
+      <c r="K19" s="5">
+        <v>2500</v>
+      </c>
+      <c r="L19" s="5">
+        <v>2100</v>
+      </c>
+      <c r="M19" s="5">
+        <v>2600</v>
+      </c>
+      <c r="N19" s="5">
+        <v>2200</v>
+      </c>
+      <c r="O19" s="5">
+        <v>2700</v>
+      </c>
+      <c r="P19" s="5">
+        <v>2700</v>
+      </c>
+      <c r="Q19" s="5">
+        <v>3200</v>
+      </c>
+      <c r="R19" s="5">
+        <v>2900</v>
+      </c>
+      <c r="S19" s="5">
+        <v>3100</v>
+      </c>
+      <c r="T19" s="5">
+        <v>3100</v>
+      </c>
+      <c r="U19" s="5">
+        <v>2300</v>
+      </c>
+      <c r="V19" s="5">
+        <v>2400</v>
+      </c>
+      <c r="W19" s="5">
+        <v>2600</v>
+      </c>
+      <c r="X19" s="5">
+        <v>3800</v>
+      </c>
+      <c r="Y19" s="5">
+        <v>2700</v>
+      </c>
+      <c r="Z19" s="5">
+        <v>2800</v>
+      </c>
+      <c r="AA19" s="5">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A20" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="5">
+        <v>23800</v>
+      </c>
+      <c r="D20" s="5">
+        <v>21600</v>
+      </c>
+      <c r="E20" s="5">
+        <v>25000</v>
+      </c>
+      <c r="F20" s="5">
+        <v>15900</v>
+      </c>
+      <c r="G20" s="5">
+        <v>14100</v>
+      </c>
+      <c r="H20" s="5">
+        <v>12300</v>
+      </c>
+      <c r="I20" s="5">
+        <v>10500</v>
+      </c>
+      <c r="J20" s="5">
+        <v>9200</v>
+      </c>
+      <c r="K20" s="5">
+        <v>8000</v>
+      </c>
+      <c r="L20" s="5">
+        <v>9300</v>
+      </c>
+      <c r="M20" s="5">
+        <v>7200</v>
+      </c>
+      <c r="N20" s="5">
+        <v>9100</v>
+      </c>
+      <c r="O20" s="5">
+        <v>24900</v>
+      </c>
+      <c r="P20" s="5">
+        <v>15800</v>
+      </c>
+      <c r="Q20" s="5">
+        <v>12700</v>
+      </c>
+      <c r="R20" s="5">
+        <v>13600</v>
+      </c>
+      <c r="S20" s="5">
+        <v>15000</v>
+      </c>
+      <c r="T20" s="5">
+        <v>15700</v>
+      </c>
+      <c r="U20" s="5">
+        <v>12300</v>
+      </c>
+      <c r="V20" s="5">
+        <v>12100</v>
+      </c>
+      <c r="W20" s="5">
+        <v>10200</v>
+      </c>
+      <c r="X20" s="5">
+        <v>10600</v>
+      </c>
+      <c r="Y20" s="5">
+        <v>10800</v>
+      </c>
+      <c r="Z20" s="5">
+        <v>6000</v>
+      </c>
+      <c r="AA20" s="5">
+        <v>10800</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A21" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="5">
+        <v>40400</v>
+      </c>
+      <c r="D21" s="5">
+        <v>32300</v>
+      </c>
+      <c r="E21" s="5">
+        <v>26300</v>
+      </c>
+      <c r="F21" s="5">
+        <v>24500</v>
+      </c>
+      <c r="G21" s="5">
+        <v>18400</v>
+      </c>
+      <c r="H21" s="5">
+        <v>19600</v>
+      </c>
+      <c r="I21" s="5">
+        <v>16000</v>
+      </c>
+      <c r="J21" s="5">
+        <v>14500</v>
+      </c>
+      <c r="K21" s="5">
+        <v>16000</v>
+      </c>
+      <c r="L21" s="5">
+        <v>16900</v>
+      </c>
+      <c r="M21" s="5">
+        <v>20600</v>
+      </c>
+      <c r="N21" s="5">
+        <v>20400</v>
+      </c>
+      <c r="O21" s="5">
+        <v>20100</v>
+      </c>
+      <c r="P21" s="5">
+        <v>21300</v>
+      </c>
+      <c r="Q21" s="5">
+        <v>19700</v>
+      </c>
+      <c r="R21" s="5">
+        <v>21300</v>
+      </c>
+      <c r="S21" s="5">
+        <v>18900</v>
+      </c>
+      <c r="T21" s="5">
+        <v>22500</v>
+      </c>
+      <c r="U21" s="5">
+        <v>21300</v>
+      </c>
+      <c r="V21" s="5">
+        <v>22900</v>
+      </c>
+      <c r="W21" s="5">
+        <v>19900</v>
+      </c>
+      <c r="X21" s="5">
+        <v>20100</v>
+      </c>
+      <c r="Y21" s="5">
+        <v>18800</v>
+      </c>
+      <c r="Z21" s="5">
+        <v>17000</v>
+      </c>
+      <c r="AA21" s="5">
+        <v>22600</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A22" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="5">
+        <v>215000</v>
+      </c>
+      <c r="D22" s="5">
+        <v>249400</v>
+      </c>
+      <c r="E22" s="5">
+        <v>251600</v>
+      </c>
+      <c r="F22" s="5">
+        <v>257400</v>
+      </c>
+      <c r="G22" s="5">
+        <v>264700</v>
+      </c>
+      <c r="H22" s="5">
+        <v>270400</v>
+      </c>
+      <c r="I22" s="5">
+        <v>259000</v>
+      </c>
+      <c r="J22" s="5">
+        <v>269000</v>
+      </c>
+      <c r="K22" s="5">
+        <v>258600</v>
+      </c>
+      <c r="L22" s="5">
+        <v>280100</v>
+      </c>
+      <c r="M22" s="5">
+        <v>288000</v>
+      </c>
+      <c r="N22" s="5">
+        <v>280700</v>
+      </c>
+      <c r="O22" s="5">
+        <v>286100</v>
+      </c>
+      <c r="P22" s="5">
+        <v>298500</v>
+      </c>
+      <c r="Q22" s="5">
+        <v>307900</v>
+      </c>
+      <c r="R22" s="5">
+        <v>302900</v>
+      </c>
+      <c r="S22" s="5">
+        <v>302400</v>
+      </c>
+      <c r="T22" s="5">
+        <v>304200</v>
+      </c>
+      <c r="U22" s="5">
+        <v>307600</v>
+      </c>
+      <c r="V22" s="5">
+        <v>309000</v>
+      </c>
+      <c r="W22" s="5">
+        <v>315900</v>
+      </c>
+      <c r="X22" s="5">
+        <v>315700</v>
+      </c>
+      <c r="Y22" s="5">
+        <v>303200</v>
+      </c>
+      <c r="Z22" s="5">
+        <v>280200</v>
+      </c>
+      <c r="AA22" s="5">
+        <v>215400</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A23" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" s="5">
+        <v>63000</v>
+      </c>
+      <c r="D23" s="5">
+        <v>56200</v>
+      </c>
+      <c r="E23" s="5">
+        <v>51300</v>
+      </c>
+      <c r="F23" s="5">
+        <v>59200</v>
+      </c>
+      <c r="G23" s="5">
+        <v>51600</v>
+      </c>
+      <c r="H23" s="5">
+        <v>53000</v>
+      </c>
+      <c r="I23" s="5">
+        <v>48200</v>
+      </c>
+      <c r="J23" s="5">
+        <v>46700</v>
+      </c>
+      <c r="K23" s="5">
+        <v>48600</v>
+      </c>
+      <c r="L23" s="5">
+        <v>45500</v>
+      </c>
+      <c r="M23" s="5">
+        <v>47000</v>
+      </c>
+      <c r="N23" s="5">
+        <v>52300</v>
+      </c>
+      <c r="O23" s="5">
+        <v>44500</v>
+      </c>
+      <c r="P23" s="5">
+        <v>46800</v>
+      </c>
+      <c r="Q23" s="5">
+        <v>44900</v>
+      </c>
+      <c r="R23" s="5">
+        <v>42600</v>
+      </c>
+      <c r="S23" s="5">
+        <v>40500</v>
+      </c>
+      <c r="T23" s="5">
+        <v>39200</v>
+      </c>
+      <c r="U23" s="5">
+        <v>37400</v>
+      </c>
+      <c r="V23" s="5">
+        <v>37200</v>
+      </c>
+      <c r="W23" s="5">
+        <v>35700</v>
+      </c>
+      <c r="X23" s="5">
+        <v>34100</v>
+      </c>
+      <c r="Y23" s="5">
+        <v>32100</v>
+      </c>
+      <c r="Z23" s="5">
+        <v>21700</v>
+      </c>
+      <c r="AA23" s="5">
+        <v>14200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A24" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="5">
+        <v>24200</v>
+      </c>
+      <c r="D24" s="5">
+        <v>23800</v>
+      </c>
+      <c r="E24" s="5">
+        <v>25100</v>
+      </c>
+      <c r="F24" s="5">
+        <v>28400</v>
+      </c>
+      <c r="G24" s="5">
+        <v>27300</v>
+      </c>
+      <c r="H24" s="5">
+        <v>23800</v>
+      </c>
+      <c r="I24" s="5">
+        <v>23900</v>
+      </c>
+      <c r="J24" s="5">
+        <v>25800</v>
+      </c>
+      <c r="K24" s="5">
+        <v>24100</v>
+      </c>
+      <c r="L24" s="5">
+        <v>23800</v>
+      </c>
+      <c r="M24" s="5">
+        <v>25900</v>
+      </c>
+      <c r="N24" s="5">
+        <v>25700</v>
+      </c>
+      <c r="O24" s="5">
+        <v>24300</v>
+      </c>
+      <c r="P24" s="5">
+        <v>25200</v>
+      </c>
+      <c r="Q24" s="5">
+        <v>24500</v>
+      </c>
+      <c r="R24" s="5">
+        <v>24300</v>
+      </c>
+      <c r="S24" s="5">
+        <v>26000</v>
+      </c>
+      <c r="T24" s="5">
+        <v>24000</v>
+      </c>
+      <c r="U24" s="5">
+        <v>25100</v>
+      </c>
+      <c r="V24" s="5">
+        <v>22500</v>
+      </c>
+      <c r="W24" s="5">
+        <v>23900</v>
+      </c>
+      <c r="X24" s="5">
+        <v>25000</v>
+      </c>
+      <c r="Y24" s="5">
+        <v>22700</v>
+      </c>
+      <c r="Z24" s="5">
+        <v>18800</v>
+      </c>
+      <c r="AA24" s="5">
+        <v>15800</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A25" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="5">
+        <v>56400</v>
+      </c>
+      <c r="D25" s="5">
+        <v>61700</v>
+      </c>
+      <c r="E25" s="5">
+        <v>63400</v>
+      </c>
+      <c r="F25" s="5">
         <v>55300</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A15" s="4" t="s">
+      <c r="G25" s="5">
+        <v>50700</v>
+      </c>
+      <c r="H25" s="5">
+        <v>44800</v>
+      </c>
+      <c r="I25" s="5">
+        <v>40600</v>
+      </c>
+      <c r="J25" s="5">
+        <v>39600</v>
+      </c>
+      <c r="K25" s="5">
+        <v>34400</v>
+      </c>
+      <c r="L25" s="5">
+        <v>33800</v>
+      </c>
+      <c r="M25" s="5">
+        <v>31200</v>
+      </c>
+      <c r="N25" s="5">
+        <v>33900</v>
+      </c>
+      <c r="O25" s="5">
+        <v>43600</v>
+      </c>
+      <c r="P25" s="5">
+        <v>35100</v>
+      </c>
+      <c r="Q25" s="5">
+        <v>36100</v>
+      </c>
+      <c r="R25" s="5">
+        <v>40400</v>
+      </c>
+      <c r="S25" s="5">
+        <v>41700</v>
+      </c>
+      <c r="T25" s="5">
+        <v>39100</v>
+      </c>
+      <c r="U25" s="5">
+        <v>37700</v>
+      </c>
+      <c r="V25" s="5">
+        <v>35700</v>
+      </c>
+      <c r="W25" s="5">
+        <v>31600</v>
+      </c>
+      <c r="X25" s="5">
+        <v>30400</v>
+      </c>
+      <c r="Y25" s="5">
+        <v>31900</v>
+      </c>
+      <c r="Z25" s="5">
+        <v>14800</v>
+      </c>
+      <c r="AA25" s="5">
+        <v>9900</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A26" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="5">
+        <v>75500</v>
+      </c>
+      <c r="D26" s="5">
+        <v>59300</v>
+      </c>
+      <c r="E26" s="5">
+        <v>55100</v>
+      </c>
+      <c r="F26" s="5">
+        <v>52500</v>
+      </c>
+      <c r="G26" s="5">
+        <v>41900</v>
+      </c>
+      <c r="H26" s="5">
+        <v>45400</v>
+      </c>
+      <c r="I26" s="5">
+        <v>42300</v>
+      </c>
+      <c r="J26" s="5">
+        <v>43800</v>
+      </c>
+      <c r="K26" s="5">
+        <v>42200</v>
+      </c>
+      <c r="L26" s="5">
+        <v>42000</v>
+      </c>
+      <c r="M26" s="5">
+        <v>45700</v>
+      </c>
+      <c r="N26" s="5">
+        <v>46700</v>
+      </c>
+      <c r="O26" s="5">
+        <v>44000</v>
+      </c>
+      <c r="P26" s="5">
+        <v>44000</v>
+      </c>
+      <c r="Q26" s="5">
+        <v>46300</v>
+      </c>
+      <c r="R26" s="5">
+        <v>43600</v>
+      </c>
+      <c r="S26" s="5">
+        <v>40400</v>
+      </c>
+      <c r="T26" s="5">
+        <v>44700</v>
+      </c>
+      <c r="U26" s="5">
+        <v>41700</v>
+      </c>
+      <c r="V26" s="5">
+        <v>46900</v>
+      </c>
+      <c r="W26" s="5">
+        <v>41400</v>
+      </c>
+      <c r="X26" s="5">
+        <v>39600</v>
+      </c>
+      <c r="Y26" s="5">
+        <v>40200</v>
+      </c>
+      <c r="Z26" s="5">
+        <v>31400</v>
+      </c>
+      <c r="AA26" s="5">
+        <v>24400</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A27" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" s="5">
+        <v>263200</v>
+      </c>
+      <c r="D27" s="5">
+        <v>254500</v>
+      </c>
+      <c r="E27" s="5">
+        <v>273600</v>
+      </c>
+      <c r="F27" s="5">
+        <v>267400</v>
+      </c>
+      <c r="G27" s="5">
+        <v>273700</v>
+      </c>
+      <c r="H27" s="5">
+        <v>269300</v>
+      </c>
+      <c r="I27" s="5">
+        <v>283700</v>
+      </c>
+      <c r="J27" s="5">
+        <v>282800</v>
+      </c>
+      <c r="K27" s="5">
+        <v>285000</v>
+      </c>
+      <c r="L27" s="5">
+        <v>277000</v>
+      </c>
+      <c r="M27" s="5">
+        <v>272800</v>
+      </c>
+      <c r="N27" s="5">
+        <v>270800</v>
+      </c>
+      <c r="O27" s="5">
+        <v>255500</v>
+      </c>
+      <c r="P27" s="5">
+        <v>245800</v>
+      </c>
+      <c r="Q27" s="5">
+        <v>232000</v>
+      </c>
+      <c r="R27" s="5">
+        <v>223000</v>
+      </c>
+      <c r="S27" s="5">
+        <v>215400</v>
+      </c>
+      <c r="T27" s="5">
+        <v>200600</v>
+      </c>
+      <c r="U27" s="5">
+        <v>196300</v>
+      </c>
+      <c r="V27" s="5">
+        <v>186600</v>
+      </c>
+      <c r="W27" s="5">
+        <v>178800</v>
+      </c>
+      <c r="X27" s="5">
+        <v>164400</v>
+      </c>
+      <c r="Y27" s="5">
+        <v>159600</v>
+      </c>
+      <c r="Z27" s="5">
+        <v>129400</v>
+      </c>
+      <c r="AA27" s="5">
+        <v>109100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A28" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="5">
+        <v>61000</v>
+      </c>
+      <c r="D28" s="5">
+        <v>58800</v>
+      </c>
+      <c r="E28" s="5">
+        <v>54900</v>
+      </c>
+      <c r="F28" s="5">
+        <v>66500</v>
+      </c>
+      <c r="G28" s="5">
+        <v>58700</v>
+      </c>
+      <c r="H28" s="5">
+        <v>55100</v>
+      </c>
+      <c r="I28" s="5">
+        <v>55900</v>
+      </c>
+      <c r="J28" s="5">
+        <v>54500</v>
+      </c>
+      <c r="K28" s="5">
+        <v>50200</v>
+      </c>
+      <c r="L28" s="5">
+        <v>46900</v>
+      </c>
+      <c r="M28" s="5">
+        <v>46300</v>
+      </c>
+      <c r="N28" s="5">
+        <v>42900</v>
+      </c>
+      <c r="O28" s="5">
+        <v>39500</v>
+      </c>
+      <c r="P28" s="5">
+        <v>39400</v>
+      </c>
+      <c r="Q28" s="5">
+        <v>38100</v>
+      </c>
+      <c r="R28" s="5">
+        <v>36700</v>
+      </c>
+      <c r="S28" s="5">
+        <v>34800</v>
+      </c>
+      <c r="T28" s="5">
+        <v>28500</v>
+      </c>
+      <c r="U28" s="5">
+        <v>31000</v>
+      </c>
+      <c r="V28" s="5">
+        <v>29000</v>
+      </c>
+      <c r="W28" s="5">
+        <v>27500</v>
+      </c>
+      <c r="X28" s="5">
+        <v>23600</v>
+      </c>
+      <c r="Y28" s="5">
+        <v>18500</v>
+      </c>
+      <c r="Z28" s="5">
+        <v>10300</v>
+      </c>
+      <c r="AA28" s="5">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A29" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B15" s="5">
-        <v>82400</v>
-      </c>
-      <c r="C15" s="5">
-        <v>85300</v>
-      </c>
-      <c r="D15" s="5">
-        <v>89800</v>
-      </c>
-      <c r="E15" s="5">
-        <v>91100</v>
-      </c>
-      <c r="F15" s="5">
+      <c r="B29" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="5">
+        <v>36900</v>
+      </c>
+      <c r="D29" s="5">
+        <v>39800</v>
+      </c>
+      <c r="E29" s="5">
+        <v>42400</v>
+      </c>
+      <c r="F29" s="5">
+        <v>40500</v>
+      </c>
+      <c r="G29" s="5">
+        <v>40800</v>
+      </c>
+      <c r="H29" s="5">
+        <v>38400</v>
+      </c>
+      <c r="I29" s="5">
+        <v>43400</v>
+      </c>
+      <c r="J29" s="5">
+        <v>41200</v>
+      </c>
+      <c r="K29" s="5">
+        <v>36900</v>
+      </c>
+      <c r="L29" s="5">
+        <v>39400</v>
+      </c>
+      <c r="M29" s="5">
+        <v>34800</v>
+      </c>
+      <c r="N29" s="5">
+        <v>34500</v>
+      </c>
+      <c r="O29" s="5">
+        <v>34400</v>
+      </c>
+      <c r="P29" s="5">
+        <v>32800</v>
+      </c>
+      <c r="Q29" s="5">
+        <v>29500</v>
+      </c>
+      <c r="R29" s="5">
+        <v>30500</v>
+      </c>
+      <c r="S29" s="5">
+        <v>30200</v>
+      </c>
+      <c r="T29" s="5">
+        <v>25600</v>
+      </c>
+      <c r="U29" s="5">
+        <v>25700</v>
+      </c>
+      <c r="V29" s="5">
+        <v>23300</v>
+      </c>
+      <c r="W29" s="5">
+        <v>26300</v>
+      </c>
+      <c r="X29" s="5">
+        <v>24800</v>
+      </c>
+      <c r="Y29" s="5">
+        <v>23200</v>
+      </c>
+      <c r="Z29" s="5">
+        <v>22500</v>
+      </c>
+      <c r="AA29" s="5">
+        <v>23800</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A30" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="5">
+        <v>58500</v>
+      </c>
+      <c r="D30" s="5">
+        <v>69600</v>
+      </c>
+      <c r="E30" s="5">
+        <v>68100</v>
+      </c>
+      <c r="F30" s="5">
+        <v>69300</v>
+      </c>
+      <c r="G30" s="5">
+        <v>62500</v>
+      </c>
+      <c r="H30" s="5">
+        <v>57000</v>
+      </c>
+      <c r="I30" s="5">
+        <v>57800</v>
+      </c>
+      <c r="J30" s="5">
+        <v>56000</v>
+      </c>
+      <c r="K30" s="5">
+        <v>50300</v>
+      </c>
+      <c r="L30" s="5">
+        <v>46100</v>
+      </c>
+      <c r="M30" s="5">
+        <v>39800</v>
+      </c>
+      <c r="N30" s="5">
+        <v>41500</v>
+      </c>
+      <c r="O30" s="5">
+        <v>43500</v>
+      </c>
+      <c r="P30" s="5">
+        <v>38900</v>
+      </c>
+      <c r="Q30" s="5">
+        <v>36900</v>
+      </c>
+      <c r="R30" s="5">
+        <v>35200</v>
+      </c>
+      <c r="S30" s="5">
+        <v>32400</v>
+      </c>
+      <c r="T30" s="5">
+        <v>28400</v>
+      </c>
+      <c r="U30" s="5">
+        <v>25400</v>
+      </c>
+      <c r="V30" s="5">
+        <v>25900</v>
+      </c>
+      <c r="W30" s="5">
+        <v>22500</v>
+      </c>
+      <c r="X30" s="5">
+        <v>18700</v>
+      </c>
+      <c r="Y30" s="5">
+        <v>18200</v>
+      </c>
+      <c r="Z30" s="5">
+        <v>8900</v>
+      </c>
+      <c r="AA30" s="5">
+        <v>7300</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A31" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" s="5">
+        <v>60300</v>
+      </c>
+      <c r="D31" s="5">
+        <v>65000</v>
+      </c>
+      <c r="E31" s="5">
+        <v>61200</v>
+      </c>
+      <c r="F31" s="5">
+        <v>57700</v>
+      </c>
+      <c r="G31" s="5">
+        <v>54400</v>
+      </c>
+      <c r="H31" s="5">
+        <v>48200</v>
+      </c>
+      <c r="I31" s="5">
+        <v>50500</v>
+      </c>
+      <c r="J31" s="5">
+        <v>45800</v>
+      </c>
+      <c r="K31" s="5">
+        <v>46300</v>
+      </c>
+      <c r="L31" s="5">
+        <v>45000</v>
+      </c>
+      <c r="M31" s="5">
+        <v>42100</v>
+      </c>
+      <c r="N31" s="5">
+        <v>39600</v>
+      </c>
+      <c r="O31" s="5">
+        <v>39400</v>
+      </c>
+      <c r="P31" s="5">
+        <v>35700</v>
+      </c>
+      <c r="Q31" s="5">
+        <v>33100</v>
+      </c>
+      <c r="R31" s="5">
+        <v>30300</v>
+      </c>
+      <c r="S31" s="5">
+        <v>27800</v>
+      </c>
+      <c r="T31" s="5">
+        <v>28200</v>
+      </c>
+      <c r="U31" s="5">
+        <v>25800</v>
+      </c>
+      <c r="V31" s="5">
+        <v>23500</v>
+      </c>
+      <c r="W31" s="5">
+        <v>20600</v>
+      </c>
+      <c r="X31" s="5">
+        <v>18700</v>
+      </c>
+      <c r="Y31" s="5">
+        <v>20800</v>
+      </c>
+      <c r="Z31" s="5">
+        <v>17900</v>
+      </c>
+      <c r="AA31" s="5">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A32" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C32" s="5">
+        <v>114700</v>
+      </c>
+      <c r="D32" s="5">
         <v>96100</v>
       </c>
-      <c r="G15" s="5">
-        <v>90500</v>
-      </c>
-      <c r="H15" s="5">
-        <v>92800</v>
-      </c>
-      <c r="I15" s="5">
-        <v>94000</v>
-      </c>
-      <c r="J15" s="5">
-        <v>87400</v>
-      </c>
-      <c r="K15" s="5">
-        <v>88200</v>
-      </c>
-      <c r="L15" s="5">
-        <v>82700</v>
-      </c>
-      <c r="M15" s="5">
-        <v>80700</v>
-      </c>
-      <c r="N15" s="5">
-        <v>83200</v>
-      </c>
-      <c r="O15" s="5">
-        <v>79500</v>
-      </c>
-      <c r="P15" s="5">
-        <v>74900</v>
-      </c>
-      <c r="Q15" s="5">
-        <v>75300</v>
-      </c>
-      <c r="R15" s="5">
-        <v>79000</v>
-      </c>
-      <c r="S15" s="5">
-        <v>70100</v>
-      </c>
-      <c r="T15" s="5">
-        <v>69600</v>
-      </c>
-      <c r="U15" s="5">
-        <v>63600</v>
-      </c>
-      <c r="V15" s="5">
-        <v>70000</v>
-      </c>
-      <c r="W15" s="5">
-        <v>70900</v>
-      </c>
-      <c r="X15" s="5">
-        <v>66300</v>
-      </c>
-      <c r="Y15" s="5">
-        <v>61800</v>
-      </c>
-      <c r="Z15" s="5">
-        <v>57100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A16" s="4" t="s">
+      <c r="E32" s="5">
+        <v>87000</v>
+      </c>
+      <c r="F32" s="5">
+        <v>74800</v>
+      </c>
+      <c r="G32" s="5">
+        <v>80800</v>
+      </c>
+      <c r="H32" s="5">
+        <v>76000</v>
+      </c>
+      <c r="I32" s="5">
+        <v>74100</v>
+      </c>
+      <c r="J32" s="5">
+        <v>69500</v>
+      </c>
+      <c r="K32" s="5">
+        <v>73600</v>
+      </c>
+      <c r="L32" s="5">
+        <v>64700</v>
+      </c>
+      <c r="M32" s="5">
+        <v>57500</v>
+      </c>
+      <c r="N32" s="5">
+        <v>54100</v>
+      </c>
+      <c r="O32" s="5">
+        <v>53300</v>
+      </c>
+      <c r="P32" s="5">
+        <v>52500</v>
+      </c>
+      <c r="Q32" s="5">
+        <v>48100</v>
+      </c>
+      <c r="R32" s="5">
+        <v>43900</v>
+      </c>
+      <c r="S32" s="5">
+        <v>45300</v>
+      </c>
+      <c r="T32" s="5">
+        <v>44500</v>
+      </c>
+      <c r="U32" s="5">
+        <v>40000</v>
+      </c>
+      <c r="V32" s="5">
+        <v>37500</v>
+      </c>
+      <c r="W32" s="5">
+        <v>38100</v>
+      </c>
+      <c r="X32" s="5">
+        <v>37400</v>
+      </c>
+      <c r="Y32" s="5">
+        <v>39900</v>
+      </c>
+      <c r="Z32" s="5">
+        <v>38700</v>
+      </c>
+      <c r="AA32" s="5">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A33" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" s="5">
+        <v>92900</v>
+      </c>
+      <c r="D33" s="5">
+        <v>98900</v>
+      </c>
+      <c r="E33" s="5">
+        <v>89000</v>
+      </c>
+      <c r="F33" s="5">
+        <v>99500</v>
+      </c>
+      <c r="G33" s="5">
+        <v>84500</v>
+      </c>
+      <c r="H33" s="5">
+        <v>81200</v>
+      </c>
+      <c r="I33" s="5">
+        <v>71500</v>
+      </c>
+      <c r="J33" s="5">
+        <v>58900</v>
+      </c>
+      <c r="K33" s="5">
+        <v>62200</v>
+      </c>
+      <c r="L33" s="5">
+        <v>50900</v>
+      </c>
+      <c r="M33" s="5">
+        <v>48700</v>
+      </c>
+      <c r="N33" s="5">
+        <v>46700</v>
+      </c>
+      <c r="O33" s="5">
+        <v>37800</v>
+      </c>
+      <c r="P33" s="5">
+        <v>40600</v>
+      </c>
+      <c r="Q33" s="5">
+        <v>38200</v>
+      </c>
+      <c r="R33" s="5">
+        <v>34900</v>
+      </c>
+      <c r="S33" s="5">
+        <v>38400</v>
+      </c>
+      <c r="T33" s="5">
+        <v>26200</v>
+      </c>
+      <c r="U33" s="5">
+        <v>29400</v>
+      </c>
+      <c r="V33" s="5">
+        <v>28900</v>
+      </c>
+      <c r="W33" s="5">
+        <v>25600</v>
+      </c>
+      <c r="X33" s="5">
+        <v>21000</v>
+      </c>
+      <c r="Y33" s="5">
+        <v>18300</v>
+      </c>
+      <c r="Z33" s="5">
+        <v>9900</v>
+      </c>
+      <c r="AA33" s="5">
+        <v>5900</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A34" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34" s="5">
+        <v>17800</v>
+      </c>
+      <c r="D34" s="5">
+        <v>18600</v>
+      </c>
+      <c r="E34" s="5">
+        <v>19100</v>
+      </c>
+      <c r="F34" s="5">
+        <v>19300</v>
+      </c>
+      <c r="G34" s="5">
+        <v>25300</v>
+      </c>
+      <c r="H34" s="5">
+        <v>25500</v>
+      </c>
+      <c r="I34" s="5">
+        <v>23100</v>
+      </c>
+      <c r="J34" s="5">
+        <v>24100</v>
+      </c>
+      <c r="K34" s="5">
+        <v>23800</v>
+      </c>
+      <c r="L34" s="5">
+        <v>23000</v>
+      </c>
+      <c r="M34" s="5">
+        <v>19300</v>
+      </c>
+      <c r="N34" s="5">
+        <v>18300</v>
+      </c>
+      <c r="O34" s="5">
+        <v>21800</v>
+      </c>
+      <c r="P34" s="5">
+        <v>18800</v>
+      </c>
+      <c r="Q34" s="5">
+        <v>17700</v>
+      </c>
+      <c r="R34" s="5">
+        <v>17600</v>
+      </c>
+      <c r="S34" s="5">
+        <v>19700</v>
+      </c>
+      <c r="T34" s="5">
+        <v>17300</v>
+      </c>
+      <c r="U34" s="5">
+        <v>16400</v>
+      </c>
+      <c r="V34" s="5">
+        <v>15500</v>
+      </c>
+      <c r="W34" s="5">
+        <v>17300</v>
+      </c>
+      <c r="X34" s="5">
+        <v>17400</v>
+      </c>
+      <c r="Y34" s="5">
+        <v>17700</v>
+      </c>
+      <c r="Z34" s="5">
+        <v>17700</v>
+      </c>
+      <c r="AA34" s="5">
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A35" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B16" s="5">
-        <v>217300</v>
-      </c>
-      <c r="C16" s="5">
-        <v>217400</v>
-      </c>
-      <c r="D16" s="5">
-        <v>220300</v>
-      </c>
-      <c r="E16" s="5">
-        <v>208000</v>
-      </c>
-      <c r="F16" s="5">
-        <v>185400</v>
-      </c>
-      <c r="G16" s="5">
-        <v>167900</v>
-      </c>
-      <c r="H16" s="5">
-        <v>156200</v>
-      </c>
-      <c r="I16" s="5">
-        <v>146000</v>
-      </c>
-      <c r="J16" s="5">
-        <v>134800</v>
-      </c>
-      <c r="K16" s="5">
-        <v>124400</v>
-      </c>
-      <c r="L16" s="5">
-        <v>109500</v>
-      </c>
-      <c r="M16" s="5">
-        <v>114000</v>
-      </c>
-      <c r="N16" s="5">
-        <v>139900</v>
-      </c>
-      <c r="O16" s="5">
-        <v>115700</v>
-      </c>
-      <c r="P16" s="5">
-        <v>109700</v>
-      </c>
-      <c r="Q16" s="5">
-        <v>116400</v>
-      </c>
-      <c r="R16" s="5">
-        <v>112500</v>
-      </c>
-      <c r="S16" s="5">
-        <v>103300</v>
-      </c>
-      <c r="T16" s="5">
-        <v>96300</v>
-      </c>
-      <c r="U16" s="5">
-        <v>94800</v>
-      </c>
-      <c r="V16" s="5">
-        <v>82700</v>
-      </c>
-      <c r="W16" s="5">
-        <v>73200</v>
-      </c>
-      <c r="X16" s="5">
-        <v>75400</v>
-      </c>
-      <c r="Y16" s="5">
-        <v>38100</v>
-      </c>
-      <c r="Z16" s="5">
-        <v>34600</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="s">
+      <c r="B35" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C35" s="5">
+        <v>78600</v>
+      </c>
+      <c r="D35" s="5">
+        <v>64500</v>
+      </c>
+      <c r="E35" s="5">
+        <v>63800</v>
+      </c>
+      <c r="F35" s="5">
+        <v>67600</v>
+      </c>
+      <c r="G35" s="5">
+        <v>58200</v>
+      </c>
+      <c r="H35" s="5">
+        <v>53800</v>
+      </c>
+      <c r="I35" s="5">
+        <v>47400</v>
+      </c>
+      <c r="J35" s="5">
+        <v>41200</v>
+      </c>
+      <c r="K35" s="5">
+        <v>42100</v>
+      </c>
+      <c r="L35" s="5">
+        <v>35200</v>
+      </c>
+      <c r="M35" s="5">
+        <v>31200</v>
+      </c>
+      <c r="N35" s="5">
+        <v>29500</v>
+      </c>
+      <c r="O35" s="5">
+        <v>27900</v>
+      </c>
+      <c r="P35" s="5">
+        <v>25900</v>
+      </c>
+      <c r="Q35" s="5">
+        <v>23900</v>
+      </c>
+      <c r="R35" s="5">
+        <v>27200</v>
+      </c>
+      <c r="S35" s="5">
+        <v>23400</v>
+      </c>
+      <c r="T35" s="5">
+        <v>20000</v>
+      </c>
+      <c r="U35" s="5">
+        <v>21000</v>
+      </c>
+      <c r="V35" s="5">
+        <v>21100</v>
+      </c>
+      <c r="W35" s="5">
+        <v>18400</v>
+      </c>
+      <c r="X35" s="5">
+        <v>13500</v>
+      </c>
+      <c r="Y35" s="5">
+        <v>14500</v>
+      </c>
+      <c r="Z35" s="5">
+        <v>8400</v>
+      </c>
+      <c r="AA35" s="5">
+        <v>6600</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A36" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B17" s="5">
-        <v>212600</v>
-      </c>
-      <c r="C17" s="5">
-        <v>197400</v>
-      </c>
-      <c r="D17" s="5">
-        <v>179100</v>
-      </c>
-      <c r="E17" s="5">
-        <v>168600</v>
-      </c>
-      <c r="F17" s="5">
-        <v>151500</v>
-      </c>
-      <c r="G17" s="5">
-        <v>147600</v>
-      </c>
-      <c r="H17" s="5">
-        <v>141700</v>
-      </c>
-      <c r="I17" s="5">
-        <v>131600</v>
-      </c>
-      <c r="J17" s="5">
-        <v>128700</v>
-      </c>
-      <c r="K17" s="5">
-        <v>124800</v>
-      </c>
-      <c r="L17" s="5">
-        <v>128600</v>
-      </c>
-      <c r="M17" s="5">
-        <v>126000</v>
-      </c>
-      <c r="N17" s="5">
-        <v>123600</v>
-      </c>
-      <c r="O17" s="5">
-        <v>119300</v>
-      </c>
-      <c r="P17" s="5">
-        <v>113300</v>
-      </c>
-      <c r="Q17" s="5">
-        <v>109100</v>
-      </c>
-      <c r="R17" s="5">
-        <v>100200</v>
-      </c>
-      <c r="S17" s="5">
-        <v>111200</v>
-      </c>
-      <c r="T17" s="5">
-        <v>100800</v>
-      </c>
-      <c r="U17" s="5">
-        <v>103500</v>
-      </c>
-      <c r="V17" s="5">
-        <v>92400</v>
-      </c>
-      <c r="W17" s="5">
-        <v>88300</v>
-      </c>
-      <c r="X17" s="5">
-        <v>94100</v>
-      </c>
-      <c r="Y17" s="5">
-        <v>81200</v>
-      </c>
-      <c r="Z17" s="5">
-        <v>75000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A18" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B18" s="5">
-        <v>145200</v>
-      </c>
-      <c r="C18" s="5">
-        <v>133600</v>
-      </c>
-      <c r="D18" s="5">
-        <v>130400</v>
-      </c>
-      <c r="E18" s="5">
-        <v>123300</v>
-      </c>
-      <c r="F18" s="5">
-        <v>113500</v>
-      </c>
-      <c r="G18" s="5">
-        <v>113700</v>
-      </c>
-      <c r="H18" s="5">
-        <v>109500</v>
-      </c>
-      <c r="I18" s="5">
-        <v>99000</v>
-      </c>
-      <c r="J18" s="5">
-        <v>97500</v>
-      </c>
-      <c r="K18" s="5">
-        <v>100200</v>
-      </c>
-      <c r="L18" s="5">
-        <v>101500</v>
-      </c>
-      <c r="M18" s="5">
-        <v>109700</v>
-      </c>
-      <c r="N18" s="5">
-        <v>130400</v>
-      </c>
-      <c r="O18" s="5">
-        <v>121300</v>
-      </c>
-      <c r="P18" s="5">
-        <v>121600</v>
-      </c>
-      <c r="Q18" s="5">
-        <v>127900</v>
-      </c>
-      <c r="R18" s="5">
-        <v>122500</v>
-      </c>
-      <c r="S18" s="5">
-        <v>138300</v>
-      </c>
-      <c r="T18" s="5">
-        <v>131300</v>
-      </c>
-      <c r="U18" s="5">
-        <v>136200</v>
-      </c>
-      <c r="V18" s="5">
-        <v>130600</v>
-      </c>
-      <c r="W18" s="5">
-        <v>140300</v>
-      </c>
-      <c r="X18" s="5">
-        <v>140000</v>
-      </c>
-      <c r="Y18" s="5">
-        <v>122900</v>
-      </c>
-      <c r="Z18" s="5">
-        <v>150200</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A19" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B19" s="5">
-        <v>45800</v>
-      </c>
-      <c r="C19" s="5">
-        <v>43600</v>
-      </c>
-      <c r="D19" s="5">
-        <v>42800</v>
-      </c>
-      <c r="E19" s="5">
-        <v>43700</v>
-      </c>
-      <c r="F19" s="5">
-        <v>43800</v>
-      </c>
-      <c r="G19" s="5">
-        <v>48500</v>
-      </c>
-      <c r="H19" s="5">
-        <v>46300</v>
-      </c>
-      <c r="I19" s="5">
-        <v>44300</v>
-      </c>
-      <c r="J19" s="5">
-        <v>42600</v>
-      </c>
-      <c r="K19" s="5">
-        <v>44600</v>
-      </c>
-      <c r="L19" s="5">
-        <v>39800</v>
-      </c>
-      <c r="M19" s="5">
-        <v>42300</v>
-      </c>
-      <c r="N19" s="5">
-        <v>47300</v>
-      </c>
-      <c r="O19" s="5">
-        <v>47300</v>
-      </c>
-      <c r="P19" s="5">
-        <v>46700</v>
-      </c>
-      <c r="Q19" s="5">
-        <v>52100</v>
-      </c>
-      <c r="R19" s="5">
-        <v>48700</v>
-      </c>
-      <c r="S19" s="5">
-        <v>54800</v>
-      </c>
-      <c r="T19" s="5">
-        <v>54400</v>
-      </c>
-      <c r="U19" s="5">
-        <v>55200</v>
-      </c>
-      <c r="V19" s="5">
-        <v>58100</v>
-      </c>
-      <c r="W19" s="5">
-        <v>65500</v>
-      </c>
-      <c r="X19" s="5">
-        <v>66800</v>
-      </c>
-      <c r="Y19" s="5">
-        <v>70500</v>
-      </c>
-      <c r="Z19" s="5">
-        <v>84400</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A20" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B20" s="5">
-        <v>31700</v>
-      </c>
-      <c r="C20" s="5">
-        <v>33100</v>
-      </c>
-      <c r="D20" s="5">
-        <v>33100</v>
-      </c>
-      <c r="E20" s="5">
-        <v>36300</v>
-      </c>
-      <c r="F20" s="5">
-        <v>34500</v>
-      </c>
-      <c r="G20" s="5">
-        <v>30400</v>
-      </c>
-      <c r="H20" s="5">
-        <v>34300</v>
-      </c>
-      <c r="I20" s="5">
-        <v>28000</v>
-      </c>
-      <c r="J20" s="5">
-        <v>28300</v>
-      </c>
-      <c r="K20" s="5">
-        <v>27300</v>
-      </c>
-      <c r="L20" s="5">
-        <v>31200</v>
-      </c>
-      <c r="M20" s="5">
-        <v>35700</v>
-      </c>
-      <c r="N20" s="5">
-        <v>35500</v>
-      </c>
-      <c r="O20" s="5">
-        <v>34300</v>
-      </c>
-      <c r="P20" s="5">
-        <v>39200</v>
-      </c>
-      <c r="Q20" s="5">
-        <v>38000</v>
-      </c>
-      <c r="R20" s="5">
-        <v>36900</v>
-      </c>
-      <c r="S20" s="5">
-        <v>42000</v>
-      </c>
-      <c r="T20" s="5">
-        <v>41000</v>
-      </c>
-      <c r="U20" s="5">
-        <v>43700</v>
-      </c>
-      <c r="V20" s="5">
-        <v>39800</v>
-      </c>
-      <c r="W20" s="5">
-        <v>40300</v>
-      </c>
-      <c r="X20" s="5">
-        <v>40900</v>
-      </c>
-      <c r="Y20" s="5">
-        <v>26600</v>
-      </c>
-      <c r="Z20" s="5">
-        <v>29200</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A21" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B21" s="5">
-        <v>3500</v>
-      </c>
-      <c r="C21" s="5">
-        <v>3100</v>
-      </c>
-      <c r="D21" s="5">
-        <v>3100</v>
-      </c>
-      <c r="E21" s="5">
-        <v>2900</v>
-      </c>
-      <c r="F21" s="5">
-        <v>2700</v>
-      </c>
-      <c r="G21" s="5">
-        <v>2900</v>
-      </c>
-      <c r="H21" s="5">
-        <v>2400</v>
-      </c>
-      <c r="I21" s="5">
-        <v>2900</v>
-      </c>
-      <c r="J21" s="5">
-        <v>2500</v>
-      </c>
-      <c r="K21" s="5">
-        <v>2100</v>
-      </c>
-      <c r="L21" s="5">
-        <v>2600</v>
-      </c>
-      <c r="M21" s="5">
-        <v>2200</v>
-      </c>
-      <c r="N21" s="5">
-        <v>2700</v>
-      </c>
-      <c r="O21" s="5">
-        <v>2700</v>
-      </c>
-      <c r="P21" s="5">
-        <v>3200</v>
-      </c>
-      <c r="Q21" s="5">
-        <v>2900</v>
-      </c>
-      <c r="R21" s="5">
-        <v>3100</v>
-      </c>
-      <c r="S21" s="5">
-        <v>3100</v>
-      </c>
-      <c r="T21" s="5">
-        <v>2300</v>
-      </c>
-      <c r="U21" s="5">
-        <v>2400</v>
-      </c>
-      <c r="V21" s="5">
-        <v>2600</v>
-      </c>
-      <c r="W21" s="5">
-        <v>3800</v>
-      </c>
-      <c r="X21" s="5">
-        <v>2700</v>
-      </c>
-      <c r="Y21" s="5">
-        <v>2800</v>
-      </c>
-      <c r="Z21" s="5">
-        <v>3200</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A22" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B22" s="5">
-        <v>23800</v>
-      </c>
-      <c r="C22" s="5">
-        <v>21600</v>
-      </c>
-      <c r="D22" s="5">
-        <v>25000</v>
-      </c>
-      <c r="E22" s="5">
-        <v>15900</v>
-      </c>
-      <c r="F22" s="5">
-        <v>14100</v>
-      </c>
-      <c r="G22" s="5">
-        <v>12300</v>
-      </c>
-      <c r="H22" s="5">
+      <c r="B36" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C36" s="5">
+        <v>36400</v>
+      </c>
+      <c r="D36" s="5">
+        <v>40800</v>
+      </c>
+      <c r="E36" s="5">
+        <v>36500</v>
+      </c>
+      <c r="F36" s="5">
+        <v>33900</v>
+      </c>
+      <c r="G36" s="5">
+        <v>36800</v>
+      </c>
+      <c r="H36" s="5">
+        <v>34400</v>
+      </c>
+      <c r="I36" s="5">
+        <v>33000</v>
+      </c>
+      <c r="J36" s="5">
+        <v>27500</v>
+      </c>
+      <c r="K36" s="5">
+        <v>24100</v>
+      </c>
+      <c r="L36" s="5">
+        <v>20900</v>
+      </c>
+      <c r="M36" s="5">
+        <v>20300</v>
+      </c>
+      <c r="N36" s="5">
+        <v>19300</v>
+      </c>
+      <c r="O36" s="5">
+        <v>20000</v>
+      </c>
+      <c r="P36" s="5">
+        <v>18300</v>
+      </c>
+      <c r="Q36" s="5">
+        <v>14300</v>
+      </c>
+      <c r="R36" s="5">
+        <v>13900</v>
+      </c>
+      <c r="S36" s="5">
+        <v>13200</v>
+      </c>
+      <c r="T36" s="5">
+        <v>15800</v>
+      </c>
+      <c r="U36" s="5">
+        <v>12000</v>
+      </c>
+      <c r="V36" s="5">
+        <v>10200</v>
+      </c>
+      <c r="W36" s="5">
         <v>10500</v>
       </c>
-      <c r="I22" s="5">
-        <v>9200</v>
-      </c>
-      <c r="J22" s="5">
-        <v>8000</v>
-      </c>
-      <c r="K22" s="5">
-        <v>9300</v>
-      </c>
-      <c r="L22" s="5">
-        <v>7200</v>
-      </c>
-      <c r="M22" s="5">
-        <v>9100</v>
-      </c>
-      <c r="N22" s="5">
-        <v>24900</v>
-      </c>
-      <c r="O22" s="5">
-        <v>15800</v>
-      </c>
-      <c r="P22" s="5">
-        <v>12700</v>
-      </c>
-      <c r="Q22" s="5">
-        <v>13600</v>
-      </c>
-      <c r="R22" s="5">
-        <v>15000</v>
-      </c>
-      <c r="S22" s="5">
-        <v>15700</v>
-      </c>
-      <c r="T22" s="5">
-        <v>12300</v>
-      </c>
-      <c r="U22" s="5">
-        <v>12100</v>
-      </c>
-      <c r="V22" s="5">
-        <v>10200</v>
-      </c>
-      <c r="W22" s="5">
-        <v>10600</v>
-      </c>
-      <c r="X22" s="5">
-        <v>10800</v>
-      </c>
-      <c r="Y22" s="5">
-        <v>6000</v>
-      </c>
-      <c r="Z22" s="5">
-        <v>10800</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A23" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B23" s="5">
-        <v>40400</v>
-      </c>
-      <c r="C23" s="5">
-        <v>32300</v>
-      </c>
-      <c r="D23" s="5">
-        <v>26300</v>
-      </c>
-      <c r="E23" s="5">
-        <v>24500</v>
-      </c>
-      <c r="F23" s="5">
-        <v>18400</v>
-      </c>
-      <c r="G23" s="5">
-        <v>19600</v>
-      </c>
-      <c r="H23" s="5">
-        <v>16000</v>
-      </c>
-      <c r="I23" s="5">
-        <v>14500</v>
-      </c>
-      <c r="J23" s="5">
-        <v>16000</v>
-      </c>
-      <c r="K23" s="5">
-        <v>16900</v>
-      </c>
-      <c r="L23" s="5">
-        <v>20600</v>
-      </c>
-      <c r="M23" s="5">
-        <v>20400</v>
-      </c>
-      <c r="N23" s="5">
-        <v>20100</v>
-      </c>
-      <c r="O23" s="5">
-        <v>21300</v>
-      </c>
-      <c r="P23" s="5">
-        <v>19700</v>
-      </c>
-      <c r="Q23" s="5">
-        <v>21300</v>
-      </c>
-      <c r="R23" s="5">
-        <v>18900</v>
-      </c>
-      <c r="S23" s="5">
-        <v>22500</v>
-      </c>
-      <c r="T23" s="5">
-        <v>21300</v>
-      </c>
-      <c r="U23" s="5">
-        <v>22900</v>
-      </c>
-      <c r="V23" s="5">
-        <v>19900</v>
-      </c>
-      <c r="W23" s="5">
-        <v>20100</v>
-      </c>
-      <c r="X23" s="5">
-        <v>18800</v>
-      </c>
-      <c r="Y23" s="5">
-        <v>17000</v>
-      </c>
-      <c r="Z23" s="5">
-        <v>22600</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A24" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B24" s="5">
-        <v>434200</v>
-      </c>
-      <c r="C24" s="5">
-        <v>450500</v>
-      </c>
-      <c r="D24" s="5">
-        <v>446500</v>
-      </c>
-      <c r="E24" s="5">
-        <v>452700</v>
-      </c>
-      <c r="F24" s="5">
-        <v>436300</v>
-      </c>
-      <c r="G24" s="5">
-        <v>437300</v>
-      </c>
-      <c r="H24" s="5">
-        <v>413900</v>
-      </c>
-      <c r="I24" s="5">
-        <v>424900</v>
-      </c>
-      <c r="J24" s="5">
-        <v>408000</v>
-      </c>
-      <c r="K24" s="5">
-        <v>425200</v>
-      </c>
-      <c r="L24" s="5">
-        <v>437800</v>
-      </c>
-      <c r="M24" s="5">
-        <v>439300</v>
-      </c>
-      <c r="N24" s="5">
-        <v>442400</v>
-      </c>
-      <c r="O24" s="5">
-        <v>449600</v>
-      </c>
-      <c r="P24" s="5">
-        <v>459700</v>
-      </c>
-      <c r="Q24" s="5">
-        <v>453900</v>
-      </c>
-      <c r="R24" s="5">
-        <v>450900</v>
-      </c>
-      <c r="S24" s="5">
-        <v>451200</v>
-      </c>
-      <c r="T24" s="5">
-        <v>449600</v>
-      </c>
-      <c r="U24" s="5">
-        <v>451300</v>
-      </c>
-      <c r="V24" s="5">
-        <v>448400</v>
-      </c>
-      <c r="W24" s="5">
-        <v>444700</v>
-      </c>
-      <c r="X24" s="5">
-        <v>430000</v>
-      </c>
-      <c r="Y24" s="5">
-        <v>366900</v>
-      </c>
-      <c r="Z24" s="5">
-        <v>279700</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A25" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B25" s="5">
-        <v>215000</v>
-      </c>
-      <c r="C25" s="5">
-        <v>249400</v>
-      </c>
-      <c r="D25" s="5">
-        <v>251600</v>
-      </c>
-      <c r="E25" s="5">
-        <v>257400</v>
-      </c>
-      <c r="F25" s="5">
-        <v>264700</v>
-      </c>
-      <c r="G25" s="5">
-        <v>270400</v>
-      </c>
-      <c r="H25" s="5">
-        <v>259000</v>
-      </c>
-      <c r="I25" s="5">
-        <v>269000</v>
-      </c>
-      <c r="J25" s="5">
-        <v>258600</v>
-      </c>
-      <c r="K25" s="5">
-        <v>280100</v>
-      </c>
-      <c r="L25" s="5">
-        <v>288000</v>
-      </c>
-      <c r="M25" s="5">
-        <v>280700</v>
-      </c>
-      <c r="N25" s="5">
-        <v>286100</v>
-      </c>
-      <c r="O25" s="5">
-        <v>298500</v>
-      </c>
-      <c r="P25" s="5">
-        <v>307900</v>
-      </c>
-      <c r="Q25" s="5">
-        <v>302900</v>
-      </c>
-      <c r="R25" s="5">
-        <v>302400</v>
-      </c>
-      <c r="S25" s="5">
-        <v>304200</v>
-      </c>
-      <c r="T25" s="5">
-        <v>307600</v>
-      </c>
-      <c r="U25" s="5">
-        <v>309000</v>
-      </c>
-      <c r="V25" s="5">
-        <v>315900</v>
-      </c>
-      <c r="W25" s="5">
-        <v>315700</v>
-      </c>
-      <c r="X25" s="5">
-        <v>303200</v>
-      </c>
-      <c r="Y25" s="5">
-        <v>280200</v>
-      </c>
-      <c r="Z25" s="5">
-        <v>215400</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A26" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B26" s="5">
-        <v>63000</v>
-      </c>
-      <c r="C26" s="5">
-        <v>56200</v>
-      </c>
-      <c r="D26" s="5">
-        <v>51300</v>
-      </c>
-      <c r="E26" s="5">
-        <v>59200</v>
-      </c>
-      <c r="F26" s="5">
-        <v>51600</v>
-      </c>
-      <c r="G26" s="5">
-        <v>53000</v>
-      </c>
-      <c r="H26" s="5">
-        <v>48200</v>
-      </c>
-      <c r="I26" s="5">
-        <v>46700</v>
-      </c>
-      <c r="J26" s="5">
-        <v>48600</v>
-      </c>
-      <c r="K26" s="5">
-        <v>45500</v>
-      </c>
-      <c r="L26" s="5">
-        <v>47000</v>
-      </c>
-      <c r="M26" s="5">
-        <v>52300</v>
-      </c>
-      <c r="N26" s="5">
-        <v>44500</v>
-      </c>
-      <c r="O26" s="5">
-        <v>46800</v>
-      </c>
-      <c r="P26" s="5">
-        <v>44900</v>
-      </c>
-      <c r="Q26" s="5">
-        <v>42600</v>
-      </c>
-      <c r="R26" s="5">
-        <v>40500</v>
-      </c>
-      <c r="S26" s="5">
-        <v>39200</v>
-      </c>
-      <c r="T26" s="5">
-        <v>37400</v>
-      </c>
-      <c r="U26" s="5">
-        <v>37200</v>
-      </c>
-      <c r="V26" s="5">
-        <v>35700</v>
-      </c>
-      <c r="W26" s="5">
-        <v>34100</v>
-      </c>
-      <c r="X26" s="5">
-        <v>32100</v>
-      </c>
-      <c r="Y26" s="5">
-        <v>21700</v>
-      </c>
-      <c r="Z26" s="5">
-        <v>14200</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A27" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B27" s="5">
-        <v>24200</v>
-      </c>
-      <c r="C27" s="5">
-        <v>23800</v>
-      </c>
-      <c r="D27" s="5">
-        <v>25100</v>
-      </c>
-      <c r="E27" s="5">
-        <v>28400</v>
-      </c>
-      <c r="F27" s="5">
-        <v>27300</v>
-      </c>
-      <c r="G27" s="5">
-        <v>23800</v>
-      </c>
-      <c r="H27" s="5">
-        <v>23900</v>
-      </c>
-      <c r="I27" s="5">
-        <v>25800</v>
-      </c>
-      <c r="J27" s="5">
-        <v>24100</v>
-      </c>
-      <c r="K27" s="5">
-        <v>23800</v>
-      </c>
-      <c r="L27" s="5">
-        <v>25900</v>
-      </c>
-      <c r="M27" s="5">
-        <v>25700</v>
-      </c>
-      <c r="N27" s="5">
-        <v>24300</v>
-      </c>
-      <c r="O27" s="5">
-        <v>25200</v>
-      </c>
-      <c r="P27" s="5">
-        <v>24500</v>
-      </c>
-      <c r="Q27" s="5">
-        <v>24300</v>
-      </c>
-      <c r="R27" s="5">
-        <v>26000</v>
-      </c>
-      <c r="S27" s="5">
-        <v>24000</v>
-      </c>
-      <c r="T27" s="5">
-        <v>25100</v>
-      </c>
-      <c r="U27" s="5">
-        <v>22500</v>
-      </c>
-      <c r="V27" s="5">
-        <v>23900</v>
-      </c>
-      <c r="W27" s="5">
-        <v>25000</v>
-      </c>
-      <c r="X27" s="5">
-        <v>22700</v>
-      </c>
-      <c r="Y27" s="5">
-        <v>18800</v>
-      </c>
-      <c r="Z27" s="5">
-        <v>15800</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A28" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B28" s="5">
-        <v>56400</v>
-      </c>
-      <c r="C28" s="5">
-        <v>61700</v>
-      </c>
-      <c r="D28" s="5">
-        <v>63400</v>
-      </c>
-      <c r="E28" s="5">
-        <v>55300</v>
-      </c>
-      <c r="F28" s="5">
-        <v>50700</v>
-      </c>
-      <c r="G28" s="5">
-        <v>44800</v>
-      </c>
-      <c r="H28" s="5">
-        <v>40600</v>
-      </c>
-      <c r="I28" s="5">
-        <v>39600</v>
-      </c>
-      <c r="J28" s="5">
-        <v>34400</v>
-      </c>
-      <c r="K28" s="5">
-        <v>33800</v>
-      </c>
-      <c r="L28" s="5">
-        <v>31200</v>
-      </c>
-      <c r="M28" s="5">
-        <v>33900</v>
-      </c>
-      <c r="N28" s="5">
-        <v>43600</v>
-      </c>
-      <c r="O28" s="5">
-        <v>35100</v>
-      </c>
-      <c r="P28" s="5">
-        <v>36100</v>
-      </c>
-      <c r="Q28" s="5">
-        <v>40400</v>
-      </c>
-      <c r="R28" s="5">
-        <v>41700</v>
-      </c>
-      <c r="S28" s="5">
-        <v>39100</v>
-      </c>
-      <c r="T28" s="5">
-        <v>37700</v>
-      </c>
-      <c r="U28" s="5">
-        <v>35700</v>
-      </c>
-      <c r="V28" s="5">
-        <v>31600</v>
-      </c>
-      <c r="W28" s="5">
-        <v>30400</v>
-      </c>
-      <c r="X28" s="5">
-        <v>31900</v>
-      </c>
-      <c r="Y28" s="5">
+      <c r="X36" s="5">
+        <v>10000</v>
+      </c>
+      <c r="Y36" s="5">
+        <v>14300</v>
+      </c>
+      <c r="Z36" s="5">
         <v>14800</v>
       </c>
-      <c r="Z28" s="5">
-        <v>9900</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A29" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B29" s="5">
-        <v>75500</v>
-      </c>
-      <c r="C29" s="5">
-        <v>59300</v>
-      </c>
-      <c r="D29" s="5">
-        <v>55100</v>
-      </c>
-      <c r="E29" s="5">
-        <v>52500</v>
-      </c>
-      <c r="F29" s="5">
-        <v>41900</v>
-      </c>
-      <c r="G29" s="5">
-        <v>45400</v>
-      </c>
-      <c r="H29" s="5">
-        <v>42300</v>
-      </c>
-      <c r="I29" s="5">
-        <v>43800</v>
-      </c>
-      <c r="J29" s="5">
-        <v>42200</v>
-      </c>
-      <c r="K29" s="5">
-        <v>42000</v>
-      </c>
-      <c r="L29" s="5">
-        <v>45700</v>
-      </c>
-      <c r="M29" s="5">
-        <v>46700</v>
-      </c>
-      <c r="N29" s="5">
-        <v>44000</v>
-      </c>
-      <c r="O29" s="5">
-        <v>44000</v>
-      </c>
-      <c r="P29" s="5">
-        <v>46300</v>
-      </c>
-      <c r="Q29" s="5">
-        <v>43600</v>
-      </c>
-      <c r="R29" s="5">
-        <v>40400</v>
-      </c>
-      <c r="S29" s="5">
-        <v>44700</v>
-      </c>
-      <c r="T29" s="5">
-        <v>41700</v>
-      </c>
-      <c r="U29" s="5">
-        <v>46900</v>
-      </c>
-      <c r="V29" s="5">
-        <v>41400</v>
-      </c>
-      <c r="W29" s="5">
-        <v>39600</v>
-      </c>
-      <c r="X29" s="5">
-        <v>40200</v>
-      </c>
-      <c r="Y29" s="5">
-        <v>31400</v>
-      </c>
-      <c r="Z29" s="5">
-        <v>24400</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A30" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B30" s="5">
-        <v>479800</v>
-      </c>
-      <c r="C30" s="5">
-        <v>487600</v>
-      </c>
-      <c r="D30" s="5">
-        <v>500200</v>
-      </c>
-      <c r="E30" s="5">
-        <v>501300</v>
-      </c>
-      <c r="F30" s="5">
-        <v>490100</v>
-      </c>
-      <c r="G30" s="5">
-        <v>468100</v>
-      </c>
-      <c r="H30" s="5">
-        <v>491200</v>
-      </c>
-      <c r="I30" s="5">
-        <v>480300</v>
-      </c>
-      <c r="J30" s="5">
-        <v>468700</v>
-      </c>
-      <c r="K30" s="5">
-        <v>454400</v>
-      </c>
-      <c r="L30" s="5">
-        <v>435800</v>
-      </c>
-      <c r="M30" s="5">
-        <v>429300</v>
-      </c>
-      <c r="N30" s="5">
-        <v>412300</v>
-      </c>
-      <c r="O30" s="5">
-        <v>392700</v>
-      </c>
-      <c r="P30" s="5">
-        <v>369600</v>
-      </c>
-      <c r="Q30" s="5">
-        <v>355600</v>
-      </c>
-      <c r="R30" s="5">
-        <v>340600</v>
-      </c>
-      <c r="S30" s="5">
-        <v>311300</v>
-      </c>
-      <c r="T30" s="5">
-        <v>304200</v>
-      </c>
-      <c r="U30" s="5">
-        <v>288300</v>
-      </c>
-      <c r="V30" s="5">
-        <v>275700</v>
-      </c>
-      <c r="W30" s="5">
-        <v>250100</v>
-      </c>
-      <c r="X30" s="5">
-        <v>240400</v>
-      </c>
-      <c r="Y30" s="5">
-        <v>189100</v>
-      </c>
-      <c r="Z30" s="5">
-        <v>161700</v>
-      </c>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A31" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B31" s="5">
-        <v>263200</v>
-      </c>
-      <c r="C31" s="5">
-        <v>254500</v>
-      </c>
-      <c r="D31" s="5">
-        <v>273600</v>
-      </c>
-      <c r="E31" s="5">
-        <v>267400</v>
-      </c>
-      <c r="F31" s="5">
-        <v>273700</v>
-      </c>
-      <c r="G31" s="5">
-        <v>269300</v>
-      </c>
-      <c r="H31" s="5">
-        <v>283700</v>
-      </c>
-      <c r="I31" s="5">
-        <v>282800</v>
-      </c>
-      <c r="J31" s="5">
-        <v>285000</v>
-      </c>
-      <c r="K31" s="5">
-        <v>277000</v>
-      </c>
-      <c r="L31" s="5">
-        <v>272800</v>
-      </c>
-      <c r="M31" s="5">
-        <v>270800</v>
-      </c>
-      <c r="N31" s="5">
-        <v>255500</v>
-      </c>
-      <c r="O31" s="5">
-        <v>245800</v>
-      </c>
-      <c r="P31" s="5">
-        <v>232000</v>
-      </c>
-      <c r="Q31" s="5">
-        <v>223000</v>
-      </c>
-      <c r="R31" s="5">
-        <v>215400</v>
-      </c>
-      <c r="S31" s="5">
-        <v>200600</v>
-      </c>
-      <c r="T31" s="5">
-        <v>196300</v>
-      </c>
-      <c r="U31" s="5">
-        <v>186600</v>
-      </c>
-      <c r="V31" s="5">
-        <v>178800</v>
-      </c>
-      <c r="W31" s="5">
-        <v>164400</v>
-      </c>
-      <c r="X31" s="5">
-        <v>159600</v>
-      </c>
-      <c r="Y31" s="5">
-        <v>129400</v>
-      </c>
-      <c r="Z31" s="5">
-        <v>109100</v>
-      </c>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A32" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B32" s="5">
-        <v>61000</v>
-      </c>
-      <c r="C32" s="5">
-        <v>58800</v>
-      </c>
-      <c r="D32" s="5">
-        <v>54900</v>
-      </c>
-      <c r="E32" s="5">
-        <v>66500</v>
-      </c>
-      <c r="F32" s="5">
-        <v>58700</v>
-      </c>
-      <c r="G32" s="5">
-        <v>55100</v>
-      </c>
-      <c r="H32" s="5">
-        <v>55900</v>
-      </c>
-      <c r="I32" s="5">
-        <v>54500</v>
-      </c>
-      <c r="J32" s="5">
-        <v>50200</v>
-      </c>
-      <c r="K32" s="5">
-        <v>46900</v>
-      </c>
-      <c r="L32" s="5">
-        <v>46300</v>
-      </c>
-      <c r="M32" s="5">
-        <v>42900</v>
-      </c>
-      <c r="N32" s="5">
-        <v>39500</v>
-      </c>
-      <c r="O32" s="5">
-        <v>39400</v>
-      </c>
-      <c r="P32" s="5">
-        <v>38100</v>
-      </c>
-      <c r="Q32" s="5">
-        <v>36700</v>
-      </c>
-      <c r="R32" s="5">
-        <v>34800</v>
-      </c>
-      <c r="S32" s="5">
-        <v>28500</v>
-      </c>
-      <c r="T32" s="5">
-        <v>31000</v>
-      </c>
-      <c r="U32" s="5">
-        <v>29000</v>
-      </c>
-      <c r="V32" s="5">
-        <v>27500</v>
-      </c>
-      <c r="W32" s="5">
-        <v>23600</v>
-      </c>
-      <c r="X32" s="5">
-        <v>18500</v>
-      </c>
-      <c r="Y32" s="5">
-        <v>10300</v>
-      </c>
-      <c r="Z32" s="5">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A33" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B33" s="5">
-        <v>36900</v>
-      </c>
-      <c r="C33" s="5">
-        <v>39800</v>
-      </c>
-      <c r="D33" s="5">
-        <v>42400</v>
-      </c>
-      <c r="E33" s="5">
-        <v>40500</v>
-      </c>
-      <c r="F33" s="5">
-        <v>40800</v>
-      </c>
-      <c r="G33" s="5">
-        <v>38400</v>
-      </c>
-      <c r="H33" s="5">
-        <v>43400</v>
-      </c>
-      <c r="I33" s="5">
-        <v>41200</v>
-      </c>
-      <c r="J33" s="5">
-        <v>36900</v>
-      </c>
-      <c r="K33" s="5">
-        <v>39400</v>
-      </c>
-      <c r="L33" s="5">
-        <v>34800</v>
-      </c>
-      <c r="M33" s="5">
-        <v>34500</v>
-      </c>
-      <c r="N33" s="5">
-        <v>34400</v>
-      </c>
-      <c r="O33" s="5">
-        <v>32800</v>
-      </c>
-      <c r="P33" s="5">
-        <v>29500</v>
-      </c>
-      <c r="Q33" s="5">
-        <v>30500</v>
-      </c>
-      <c r="R33" s="5">
-        <v>30200</v>
-      </c>
-      <c r="S33" s="5">
-        <v>25600</v>
-      </c>
-      <c r="T33" s="5">
-        <v>25700</v>
-      </c>
-      <c r="U33" s="5">
-        <v>23300</v>
-      </c>
-      <c r="V33" s="5">
-        <v>26300</v>
-      </c>
-      <c r="W33" s="5">
-        <v>24800</v>
-      </c>
-      <c r="X33" s="5">
-        <v>23200</v>
-      </c>
-      <c r="Y33" s="5">
-        <v>22500</v>
-      </c>
-      <c r="Z33" s="5">
-        <v>23800</v>
-      </c>
-    </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A34" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B34" s="5">
-        <v>58500</v>
-      </c>
-      <c r="C34" s="5">
-        <v>69600</v>
-      </c>
-      <c r="D34" s="5">
-        <v>68100</v>
-      </c>
-      <c r="E34" s="5">
-        <v>69300</v>
-      </c>
-      <c r="F34" s="5">
-        <v>62500</v>
-      </c>
-      <c r="G34" s="5">
-        <v>57000</v>
-      </c>
-      <c r="H34" s="5">
-        <v>57800</v>
-      </c>
-      <c r="I34" s="5">
-        <v>56000</v>
-      </c>
-      <c r="J34" s="5">
-        <v>50300</v>
-      </c>
-      <c r="K34" s="5">
-        <v>46100</v>
-      </c>
-      <c r="L34" s="5">
-        <v>39800</v>
-      </c>
-      <c r="M34" s="5">
-        <v>41500</v>
-      </c>
-      <c r="N34" s="5">
-        <v>43500</v>
-      </c>
-      <c r="O34" s="5">
-        <v>38900</v>
-      </c>
-      <c r="P34" s="5">
-        <v>36900</v>
-      </c>
-      <c r="Q34" s="5">
-        <v>35200</v>
-      </c>
-      <c r="R34" s="5">
-        <v>32400</v>
-      </c>
-      <c r="S34" s="5">
-        <v>28400</v>
-      </c>
-      <c r="T34" s="5">
-        <v>25400</v>
-      </c>
-      <c r="U34" s="5">
-        <v>25900</v>
-      </c>
-      <c r="V34" s="5">
-        <v>22500</v>
-      </c>
-      <c r="W34" s="5">
-        <v>18700</v>
-      </c>
-      <c r="X34" s="5">
-        <v>18200</v>
-      </c>
-      <c r="Y34" s="5">
-        <v>8900</v>
-      </c>
-      <c r="Z34" s="5">
-        <v>7300</v>
-      </c>
-    </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A35" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B35" s="5">
-        <v>60300</v>
-      </c>
-      <c r="C35" s="5">
-        <v>65000</v>
-      </c>
-      <c r="D35" s="5">
-        <v>61200</v>
-      </c>
-      <c r="E35" s="5">
-        <v>57700</v>
-      </c>
-      <c r="F35" s="5">
-        <v>54400</v>
-      </c>
-      <c r="G35" s="5">
-        <v>48200</v>
-      </c>
-      <c r="H35" s="5">
-        <v>50500</v>
-      </c>
-      <c r="I35" s="5">
-        <v>45800</v>
-      </c>
-      <c r="J35" s="5">
-        <v>46300</v>
-      </c>
-      <c r="K35" s="5">
-        <v>45000</v>
-      </c>
-      <c r="L35" s="5">
-        <v>42100</v>
-      </c>
-      <c r="M35" s="5">
-        <v>39600</v>
-      </c>
-      <c r="N35" s="5">
-        <v>39400</v>
-      </c>
-      <c r="O35" s="5">
-        <v>35700</v>
-      </c>
-      <c r="P35" s="5">
-        <v>33100</v>
-      </c>
-      <c r="Q35" s="5">
-        <v>30300</v>
-      </c>
-      <c r="R35" s="5">
-        <v>27800</v>
-      </c>
-      <c r="S35" s="5">
-        <v>28200</v>
-      </c>
-      <c r="T35" s="5">
-        <v>25800</v>
-      </c>
-      <c r="U35" s="5">
-        <v>23500</v>
-      </c>
-      <c r="V35" s="5">
-        <v>20600</v>
-      </c>
-      <c r="W35" s="5">
-        <v>18700</v>
-      </c>
-      <c r="X35" s="5">
-        <v>20800</v>
-      </c>
-      <c r="Y35" s="5">
-        <v>17900</v>
-      </c>
-      <c r="Z35" s="5">
-        <v>15500</v>
-      </c>
-    </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A36" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B36" s="5">
-        <v>340400</v>
-      </c>
-      <c r="C36" s="5">
-        <v>318900</v>
-      </c>
-      <c r="D36" s="5">
-        <v>295500</v>
-      </c>
-      <c r="E36" s="5">
-        <v>295100</v>
-      </c>
-      <c r="F36" s="5">
-        <v>285400</v>
-      </c>
-      <c r="G36" s="5">
-        <v>270800</v>
-      </c>
-      <c r="H36" s="5">
-        <v>248900</v>
-      </c>
-      <c r="I36" s="5">
-        <v>221200</v>
-      </c>
-      <c r="J36" s="5">
-        <v>225800</v>
-      </c>
-      <c r="K36" s="5">
-        <v>194700</v>
-      </c>
-      <c r="L36" s="5">
-        <v>177000</v>
-      </c>
-      <c r="M36" s="5">
-        <v>167900</v>
-      </c>
-      <c r="N36" s="5">
-        <v>160800</v>
-      </c>
-      <c r="O36" s="5">
-        <v>156000</v>
-      </c>
-      <c r="P36" s="5">
-        <v>142300</v>
-      </c>
-      <c r="Q36" s="5">
-        <v>137400</v>
-      </c>
-      <c r="R36" s="5">
-        <v>140000</v>
-      </c>
-      <c r="S36" s="5">
-        <v>123700</v>
-      </c>
-      <c r="T36" s="5">
-        <v>118800</v>
-      </c>
-      <c r="U36" s="5">
-        <v>113200</v>
-      </c>
-      <c r="V36" s="5">
-        <v>109800</v>
-      </c>
-      <c r="W36" s="5">
-        <v>99300</v>
-      </c>
-      <c r="X36" s="5">
-        <v>104700</v>
-      </c>
-      <c r="Y36" s="5">
-        <v>89500</v>
-      </c>
-      <c r="Z36" s="5">
-        <v>70200</v>
-      </c>
-    </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A37" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B37" s="5">
-        <v>114700</v>
-      </c>
-      <c r="C37" s="5">
-        <v>96100</v>
-      </c>
-      <c r="D37" s="5">
-        <v>87000</v>
-      </c>
-      <c r="E37" s="5">
-        <v>74800</v>
-      </c>
-      <c r="F37" s="5">
-        <v>80800</v>
-      </c>
-      <c r="G37" s="5">
-        <v>76000</v>
-      </c>
-      <c r="H37" s="5">
-        <v>74100</v>
-      </c>
-      <c r="I37" s="5">
-        <v>69500</v>
-      </c>
-      <c r="J37" s="5">
-        <v>73600</v>
-      </c>
-      <c r="K37" s="5">
-        <v>64700</v>
-      </c>
-      <c r="L37" s="5">
-        <v>57500</v>
-      </c>
-      <c r="M37" s="5">
-        <v>54100</v>
-      </c>
-      <c r="N37" s="5">
-        <v>53300</v>
-      </c>
-      <c r="O37" s="5">
-        <v>52500</v>
-      </c>
-      <c r="P37" s="5">
-        <v>48100</v>
-      </c>
-      <c r="Q37" s="5">
-        <v>43900</v>
-      </c>
-      <c r="R37" s="5">
-        <v>45300</v>
-      </c>
-      <c r="S37" s="5">
-        <v>44500</v>
-      </c>
-      <c r="T37" s="5">
-        <v>40000</v>
-      </c>
-      <c r="U37" s="5">
-        <v>37500</v>
-      </c>
-      <c r="V37" s="5">
-        <v>38100</v>
-      </c>
-      <c r="W37" s="5">
-        <v>37400</v>
-      </c>
-      <c r="X37" s="5">
-        <v>39900</v>
-      </c>
-      <c r="Y37" s="5">
-        <v>38700</v>
-      </c>
-      <c r="Z37" s="5">
-        <v>31000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A38" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B38" s="5">
-        <v>92900</v>
-      </c>
-      <c r="C38" s="5">
-        <v>98900</v>
-      </c>
-      <c r="D38" s="5">
-        <v>89000</v>
-      </c>
-      <c r="E38" s="5">
-        <v>99500</v>
-      </c>
-      <c r="F38" s="5">
-        <v>84500</v>
-      </c>
-      <c r="G38" s="5">
-        <v>81200</v>
-      </c>
-      <c r="H38" s="5">
-        <v>71500</v>
-      </c>
-      <c r="I38" s="5">
-        <v>58900</v>
-      </c>
-      <c r="J38" s="5">
-        <v>62200</v>
-      </c>
-      <c r="K38" s="5">
-        <v>50900</v>
-      </c>
-      <c r="L38" s="5">
-        <v>48700</v>
-      </c>
-      <c r="M38" s="5">
-        <v>46700</v>
-      </c>
-      <c r="N38" s="5">
-        <v>37800</v>
-      </c>
-      <c r="O38" s="5">
-        <v>40600</v>
-      </c>
-      <c r="P38" s="5">
-        <v>38200</v>
-      </c>
-      <c r="Q38" s="5">
-        <v>34900</v>
-      </c>
-      <c r="R38" s="5">
-        <v>38400</v>
-      </c>
-      <c r="S38" s="5">
-        <v>26200</v>
-      </c>
-      <c r="T38" s="5">
-        <v>29400</v>
-      </c>
-      <c r="U38" s="5">
-        <v>28900</v>
-      </c>
-      <c r="V38" s="5">
-        <v>25600</v>
-      </c>
-      <c r="W38" s="5">
-        <v>21000</v>
-      </c>
-      <c r="X38" s="5">
-        <v>18300</v>
-      </c>
-      <c r="Y38" s="5">
-        <v>9900</v>
-      </c>
-      <c r="Z38" s="5">
-        <v>5900</v>
-      </c>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A39" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B39" s="5">
-        <v>17800</v>
-      </c>
-      <c r="C39" s="5">
-        <v>18600</v>
-      </c>
-      <c r="D39" s="5">
-        <v>19100</v>
-      </c>
-      <c r="E39" s="5">
-        <v>19300</v>
-      </c>
-      <c r="F39" s="5">
-        <v>25300</v>
-      </c>
-      <c r="G39" s="5">
-        <v>25500</v>
-      </c>
-      <c r="H39" s="5">
-        <v>23100</v>
-      </c>
-      <c r="I39" s="5">
-        <v>24100</v>
-      </c>
-      <c r="J39" s="5">
-        <v>23800</v>
-      </c>
-      <c r="K39" s="5">
-        <v>23000</v>
-      </c>
-      <c r="L39" s="5">
-        <v>19300</v>
-      </c>
-      <c r="M39" s="5">
-        <v>18300</v>
-      </c>
-      <c r="N39" s="5">
-        <v>21800</v>
-      </c>
-      <c r="O39" s="5">
-        <v>18800</v>
-      </c>
-      <c r="P39" s="5">
-        <v>17700</v>
-      </c>
-      <c r="Q39" s="5">
-        <v>17600</v>
-      </c>
-      <c r="R39" s="5">
-        <v>19700</v>
-      </c>
-      <c r="S39" s="5">
-        <v>17300</v>
-      </c>
-      <c r="T39" s="5">
-        <v>16400</v>
-      </c>
-      <c r="U39" s="5">
-        <v>15500</v>
-      </c>
-      <c r="V39" s="5">
-        <v>17300</v>
-      </c>
-      <c r="W39" s="5">
-        <v>17400</v>
-      </c>
-      <c r="X39" s="5">
-        <v>17700</v>
-      </c>
-      <c r="Y39" s="5">
-        <v>17700</v>
-      </c>
-      <c r="Z39" s="5">
-        <v>14400</v>
-      </c>
-    </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A40" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B40" s="5">
-        <v>78600</v>
-      </c>
-      <c r="C40" s="5">
-        <v>64500</v>
-      </c>
-      <c r="D40" s="5">
-        <v>63800</v>
-      </c>
-      <c r="E40" s="5">
-        <v>67600</v>
-      </c>
-      <c r="F40" s="5">
-        <v>58200</v>
-      </c>
-      <c r="G40" s="5">
-        <v>53800</v>
-      </c>
-      <c r="H40" s="5">
-        <v>47400</v>
-      </c>
-      <c r="I40" s="5">
-        <v>41200</v>
-      </c>
-      <c r="J40" s="5">
-        <v>42100</v>
-      </c>
-      <c r="K40" s="5">
-        <v>35200</v>
-      </c>
-      <c r="L40" s="5">
-        <v>31200</v>
-      </c>
-      <c r="M40" s="5">
-        <v>29500</v>
-      </c>
-      <c r="N40" s="5">
-        <v>27900</v>
-      </c>
-      <c r="O40" s="5">
-        <v>25900</v>
-      </c>
-      <c r="P40" s="5">
-        <v>23900</v>
-      </c>
-      <c r="Q40" s="5">
-        <v>27200</v>
-      </c>
-      <c r="R40" s="5">
-        <v>23400</v>
-      </c>
-      <c r="S40" s="5">
-        <v>20000</v>
-      </c>
-      <c r="T40" s="5">
-        <v>21000</v>
-      </c>
-      <c r="U40" s="5">
-        <v>21100</v>
-      </c>
-      <c r="V40" s="5">
-        <v>18400</v>
-      </c>
-      <c r="W40" s="5">
-        <v>13500</v>
-      </c>
-      <c r="X40" s="5">
-        <v>14500</v>
-      </c>
-      <c r="Y40" s="5">
-        <v>8400</v>
-      </c>
-      <c r="Z40" s="5">
-        <v>6600</v>
-      </c>
-    </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A41" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B41" s="5">
-        <v>36400</v>
-      </c>
-      <c r="C41" s="5">
-        <v>40800</v>
-      </c>
-      <c r="D41" s="5">
-        <v>36500</v>
-      </c>
-      <c r="E41" s="5">
-        <v>33900</v>
-      </c>
-      <c r="F41" s="5">
-        <v>36800</v>
-      </c>
-      <c r="G41" s="5">
-        <v>34400</v>
-      </c>
-      <c r="H41" s="5">
-        <v>33000</v>
-      </c>
-      <c r="I41" s="5">
-        <v>27500</v>
-      </c>
-      <c r="J41" s="5">
-        <v>24100</v>
-      </c>
-      <c r="K41" s="5">
-        <v>20900</v>
-      </c>
-      <c r="L41" s="5">
-        <v>20300</v>
-      </c>
-      <c r="M41" s="5">
-        <v>19300</v>
-      </c>
-      <c r="N41" s="5">
-        <v>20000</v>
-      </c>
-      <c r="O41" s="5">
-        <v>18300</v>
-      </c>
-      <c r="P41" s="5">
-        <v>14300</v>
-      </c>
-      <c r="Q41" s="5">
-        <v>13900</v>
-      </c>
-      <c r="R41" s="5">
-        <v>13200</v>
-      </c>
-      <c r="S41" s="5">
-        <v>15800</v>
-      </c>
-      <c r="T41" s="5">
-        <v>12000</v>
-      </c>
-      <c r="U41" s="5">
-        <v>10200</v>
-      </c>
-      <c r="V41" s="5">
-        <v>10500</v>
-      </c>
-      <c r="W41" s="5">
-        <v>10000</v>
-      </c>
-      <c r="X41" s="5">
-        <v>14300</v>
-      </c>
-      <c r="Y41" s="5">
-        <v>14800</v>
-      </c>
-      <c r="Z41" s="5">
+      <c r="AA36" s="5">
         <v>12400</v>
       </c>
     </row>
-    <row r="43" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="6" t="s">
+    <row r="38" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.35">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.35">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
-        <v>114</v>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="6" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="6" t="s">
-        <v>65</v>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>116</v>
+        <v>70</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="6" t="s">
-        <v>68</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A98" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
         <v>79</v>
       </c>
     </row>
@@ -7900,7 +7584,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AA55"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0"/>
+    <sheetView topLeftCell="A11" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -9253,23 +8937,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:Z66"/>
+  <dimension ref="A1:AA63"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="42.7265625" customWidth="1"/>
-    <col min="2" max="26" width="24" customWidth="1"/>
+    <col min="2" max="2" width="33.36328125" customWidth="1"/>
+    <col min="3" max="27" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -9342,1429 +9026,1231 @@
       <c r="Z1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AA1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="Z10" s="1" t="s">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AA10" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="H11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="I11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="J11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="K11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="L11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="M11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M11" s="3" t="s">
+      <c r="N11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N11" s="3" t="s">
+      <c r="O11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O11" s="3" t="s">
+      <c r="P11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P11" s="3" t="s">
+      <c r="Q11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Q11" s="3" t="s">
+      <c r="R11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R11" s="3" t="s">
+      <c r="S11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="S11" s="3" t="s">
+      <c r="T11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T11" s="3" t="s">
+      <c r="U11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="U11" s="3" t="s">
+      <c r="V11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="V11" s="3" t="s">
+      <c r="W11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="W11" s="3" t="s">
+      <c r="X11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="X11" s="3" t="s">
+      <c r="Y11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="Y11" s="3" t="s">
+      <c r="Z11" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="Z11" s="3" t="s">
+      <c r="AA11" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="5">
-        <v>1399600</v>
+        <v>167</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="C12" s="5">
-        <v>1390600</v>
+        <v>130200</v>
       </c>
       <c r="D12" s="5">
-        <v>1372600</v>
+        <v>147500</v>
       </c>
       <c r="E12" s="5">
-        <v>1372400</v>
+        <v>153300</v>
       </c>
       <c r="F12" s="5">
-        <v>1325300</v>
+        <v>152100</v>
       </c>
       <c r="G12" s="5">
-        <v>1289900</v>
+        <v>157500</v>
       </c>
       <c r="H12" s="5">
-        <v>1263600</v>
+        <v>161600</v>
       </c>
       <c r="I12" s="5">
-        <v>1225300</v>
+        <v>157800</v>
       </c>
       <c r="J12" s="5">
-        <v>1200000</v>
+        <v>154000</v>
       </c>
       <c r="K12" s="5">
-        <v>1174500</v>
+        <v>148600</v>
       </c>
       <c r="L12" s="5">
-        <v>1152000</v>
+        <v>153800</v>
       </c>
       <c r="M12" s="5">
-        <v>1146200</v>
+        <v>148300</v>
       </c>
       <c r="N12" s="5">
-        <v>1145900</v>
+        <v>146900</v>
       </c>
       <c r="O12" s="5">
-        <v>1119600</v>
+        <v>156500</v>
       </c>
       <c r="P12" s="5">
-        <v>1093100</v>
+        <v>153400</v>
       </c>
       <c r="Q12" s="5">
-        <v>1074800</v>
+        <v>158200</v>
       </c>
       <c r="R12" s="5">
-        <v>1054100</v>
+        <v>156200</v>
       </c>
       <c r="S12" s="5">
-        <v>1024500</v>
+        <v>157000</v>
       </c>
       <c r="T12" s="5">
-        <v>1003800</v>
+        <v>166100</v>
       </c>
       <c r="U12" s="5">
-        <v>989000</v>
+        <v>166500</v>
       </c>
       <c r="V12" s="5">
-        <v>964600</v>
+        <v>169100</v>
       </c>
       <c r="W12" s="5">
-        <v>934400</v>
+        <v>181300</v>
       </c>
       <c r="X12" s="5">
-        <v>915100</v>
+        <v>191300</v>
       </c>
       <c r="Y12" s="5">
-        <v>768400</v>
+        <v>183100</v>
       </c>
       <c r="Z12" s="5">
-        <v>661700</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
+        <v>179700</v>
+      </c>
+      <c r="AA12" s="5">
+        <v>160200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B13" s="5">
-        <v>638700</v>
-      </c>
       <c r="C13" s="5">
-        <v>643600</v>
+        <v>102300</v>
       </c>
       <c r="D13" s="5">
-        <v>655000</v>
+        <v>111300</v>
       </c>
       <c r="E13" s="5">
-        <v>643200</v>
+        <v>115500</v>
       </c>
       <c r="F13" s="5">
-        <v>663100</v>
+        <v>116900</v>
       </c>
       <c r="G13" s="5">
-        <v>664200</v>
+        <v>119500</v>
       </c>
       <c r="H13" s="5">
-        <v>663000</v>
+        <v>121500</v>
       </c>
       <c r="I13" s="5">
-        <v>665700</v>
+        <v>111800</v>
       </c>
       <c r="J13" s="5">
-        <v>659800</v>
+        <v>117400</v>
       </c>
       <c r="K13" s="5">
-        <v>666500</v>
+        <v>110300</v>
       </c>
       <c r="L13" s="5">
-        <v>658100</v>
+        <v>120100</v>
       </c>
       <c r="M13" s="5">
-        <v>648000</v>
+        <v>122700</v>
       </c>
       <c r="N13" s="5">
-        <v>642100</v>
+        <v>124100</v>
       </c>
       <c r="O13" s="5">
-        <v>644100</v>
+        <v>126400</v>
       </c>
       <c r="P13" s="5">
-        <v>634800</v>
+        <v>136600</v>
       </c>
       <c r="Q13" s="5">
-        <v>621800</v>
+        <v>140300</v>
       </c>
       <c r="R13" s="5">
-        <v>611800</v>
+        <v>142100</v>
       </c>
       <c r="S13" s="5">
-        <v>604100</v>
+        <v>138100</v>
       </c>
       <c r="T13" s="5">
-        <v>598300</v>
+        <v>135900</v>
       </c>
       <c r="U13" s="5">
-        <v>588300</v>
+        <v>140100</v>
       </c>
       <c r="V13" s="5">
-        <v>591000</v>
+        <v>138700</v>
       </c>
       <c r="W13" s="5">
-        <v>582900</v>
+        <v>135300</v>
       </c>
       <c r="X13" s="5">
-        <v>569500</v>
+        <v>133000</v>
       </c>
       <c r="Y13" s="5">
-        <v>518800</v>
+        <v>131900</v>
       </c>
       <c r="Z13" s="5">
-        <v>439800</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
+        <v>100400</v>
+      </c>
+      <c r="AA13" s="5">
+        <v>92100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="5">
+        <v>67900</v>
+      </c>
+      <c r="D14" s="5">
+        <v>69800</v>
+      </c>
+      <c r="E14" s="5">
+        <v>69500</v>
+      </c>
+      <c r="F14" s="5">
+        <v>70400</v>
+      </c>
+      <c r="G14" s="5">
+        <v>71500</v>
+      </c>
+      <c r="H14" s="5">
+        <v>72700</v>
+      </c>
+      <c r="I14" s="5">
+        <v>76700</v>
+      </c>
+      <c r="J14" s="5">
+        <v>84100</v>
+      </c>
+      <c r="K14" s="5">
+        <v>77700</v>
+      </c>
+      <c r="L14" s="5">
+        <v>86600</v>
+      </c>
+      <c r="M14" s="5">
+        <v>88000</v>
+      </c>
+      <c r="N14" s="5">
+        <v>89700</v>
+      </c>
+      <c r="O14" s="5">
+        <v>86200</v>
+      </c>
+      <c r="P14" s="5">
+        <v>92100</v>
+      </c>
+      <c r="Q14" s="5">
+        <v>89200</v>
+      </c>
+      <c r="R14" s="5">
+        <v>88800</v>
+      </c>
+      <c r="S14" s="5">
+        <v>87500</v>
+      </c>
+      <c r="T14" s="5">
+        <v>79700</v>
+      </c>
+      <c r="U14" s="5">
+        <v>83100</v>
+      </c>
+      <c r="V14" s="5">
+        <v>83500</v>
+      </c>
+      <c r="W14" s="5">
+        <v>76700</v>
+      </c>
+      <c r="X14" s="5">
+        <v>69300</v>
+      </c>
+      <c r="Y14" s="5">
+        <v>60000</v>
+      </c>
+      <c r="Z14" s="5">
+        <v>61700</v>
+      </c>
+      <c r="AA14" s="5">
+        <v>53300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="5">
+        <v>338300</v>
+      </c>
+      <c r="D15" s="5">
+        <v>314900</v>
+      </c>
+      <c r="E15" s="5">
+        <v>316800</v>
+      </c>
+      <c r="F15" s="5">
+        <v>303700</v>
+      </c>
+      <c r="G15" s="5">
+        <v>314600</v>
+      </c>
+      <c r="H15" s="5">
+        <v>308400</v>
+      </c>
+      <c r="I15" s="5">
+        <v>316700</v>
+      </c>
+      <c r="J15" s="5">
+        <v>310100</v>
+      </c>
+      <c r="K15" s="5">
+        <v>323200</v>
+      </c>
+      <c r="L15" s="5">
+        <v>306000</v>
+      </c>
+      <c r="M15" s="5">
+        <v>299200</v>
+      </c>
+      <c r="N15" s="5">
+        <v>287400</v>
+      </c>
+      <c r="O15" s="5">
+        <v>273100</v>
+      </c>
+      <c r="P15" s="5">
+        <v>262000</v>
+      </c>
+      <c r="Q15" s="5">
+        <v>247100</v>
+      </c>
+      <c r="R15" s="5">
+        <v>234800</v>
+      </c>
+      <c r="S15" s="5">
+        <v>229300</v>
+      </c>
+      <c r="T15" s="5">
+        <v>214300</v>
+      </c>
+      <c r="U15" s="5">
+        <v>208700</v>
+      </c>
+      <c r="V15" s="5">
+        <v>197000</v>
+      </c>
+      <c r="W15" s="5">
+        <v>197700</v>
+      </c>
+      <c r="X15" s="5">
+        <v>189300</v>
+      </c>
+      <c r="Y15" s="5">
+        <v>188900</v>
+      </c>
+      <c r="Z15" s="5">
+        <v>174100</v>
+      </c>
+      <c r="AA15" s="5">
+        <v>132000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="5">
+        <v>248500</v>
+      </c>
+      <c r="D16" s="5">
+        <v>247000</v>
+      </c>
+      <c r="E16" s="5">
+        <v>228400</v>
+      </c>
+      <c r="F16" s="5">
+        <v>261500</v>
+      </c>
+      <c r="G16" s="5">
+        <v>229300</v>
+      </c>
+      <c r="H16" s="5">
+        <v>219800</v>
+      </c>
+      <c r="I16" s="5">
+        <v>209900</v>
+      </c>
+      <c r="J16" s="5">
+        <v>188100</v>
+      </c>
+      <c r="K16" s="5">
+        <v>189300</v>
+      </c>
+      <c r="L16" s="5">
+        <v>170600</v>
+      </c>
+      <c r="M16" s="5">
+        <v>173200</v>
+      </c>
+      <c r="N16" s="5">
+        <v>177600</v>
+      </c>
+      <c r="O16" s="5">
+        <v>157200</v>
+      </c>
+      <c r="P16" s="5">
+        <v>161000</v>
+      </c>
+      <c r="Q16" s="5">
+        <v>160400</v>
+      </c>
+      <c r="R16" s="5">
+        <v>152100</v>
+      </c>
+      <c r="S16" s="5">
+        <v>150500</v>
+      </c>
+      <c r="T16" s="5">
+        <v>135800</v>
+      </c>
+      <c r="U16" s="5">
+        <v>138800</v>
+      </c>
+      <c r="V16" s="5">
+        <v>138700</v>
+      </c>
+      <c r="W16" s="5">
+        <v>128500</v>
+      </c>
+      <c r="X16" s="5">
+        <v>119000</v>
+      </c>
+      <c r="Y16" s="5">
+        <v>109800</v>
+      </c>
+      <c r="Z16" s="5">
+        <v>68400</v>
+      </c>
+      <c r="AA16" s="5">
+        <v>55300</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B14" s="5">
-        <v>130200</v>
-      </c>
-      <c r="C14" s="5">
-        <v>147500</v>
-      </c>
-      <c r="D14" s="5">
-        <v>153300</v>
-      </c>
-      <c r="E14" s="5">
-        <v>152100</v>
-      </c>
-      <c r="F14" s="5">
-        <v>157500</v>
-      </c>
-      <c r="G14" s="5">
-        <v>161600</v>
-      </c>
-      <c r="H14" s="5">
-        <v>157800</v>
-      </c>
-      <c r="I14" s="5">
-        <v>154000</v>
-      </c>
-      <c r="J14" s="5">
-        <v>148600</v>
-      </c>
-      <c r="K14" s="5">
-        <v>153800</v>
-      </c>
-      <c r="L14" s="5">
-        <v>148300</v>
-      </c>
-      <c r="M14" s="5">
-        <v>146900</v>
-      </c>
-      <c r="N14" s="5">
-        <v>156500</v>
-      </c>
-      <c r="O14" s="5">
-        <v>153400</v>
-      </c>
-      <c r="P14" s="5">
-        <v>158200</v>
-      </c>
-      <c r="Q14" s="5">
+      <c r="B17" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" s="5">
+        <v>5000</v>
+      </c>
+      <c r="D17" s="5">
+        <v>4000</v>
+      </c>
+      <c r="E17" s="5">
+        <v>4000</v>
+      </c>
+      <c r="F17" s="5">
+        <v>3700</v>
+      </c>
+      <c r="G17" s="5">
+        <v>3700</v>
+      </c>
+      <c r="H17" s="5">
+        <v>3200</v>
+      </c>
+      <c r="I17" s="5">
+        <v>2800</v>
+      </c>
+      <c r="J17" s="5">
+        <v>3300</v>
+      </c>
+      <c r="K17" s="5">
+        <v>2400</v>
+      </c>
+      <c r="L17" s="5">
+        <v>2800</v>
+      </c>
+      <c r="M17" s="5">
+        <v>2800</v>
+      </c>
+      <c r="N17" s="5">
+        <v>2800</v>
+      </c>
+      <c r="O17" s="5">
+        <v>3100</v>
+      </c>
+      <c r="P17" s="5">
+        <v>3000</v>
+      </c>
+      <c r="Q17" s="5">
+        <v>3000</v>
+      </c>
+      <c r="R17" s="5">
+        <v>3200</v>
+      </c>
+      <c r="S17" s="5">
+        <v>2800</v>
+      </c>
+      <c r="T17" s="5">
+        <v>3200</v>
+      </c>
+      <c r="U17" s="5">
+        <v>2600</v>
+      </c>
+      <c r="V17" s="5">
+        <v>2600</v>
+      </c>
+      <c r="W17" s="5">
+        <v>3000</v>
+      </c>
+      <c r="X17" s="5">
+        <v>3100</v>
+      </c>
+      <c r="Y17" s="5">
+        <v>2900</v>
+      </c>
+      <c r="Z17" s="5">
+        <v>2700</v>
+      </c>
+      <c r="AA17" s="5">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="5">
+        <v>10800</v>
+      </c>
+      <c r="D18" s="5">
+        <v>9200</v>
+      </c>
+      <c r="E18" s="5">
+        <v>10300</v>
+      </c>
+      <c r="F18" s="5">
+        <v>11100</v>
+      </c>
+      <c r="G18" s="5">
+        <v>9500</v>
+      </c>
+      <c r="H18" s="5">
+        <v>8700</v>
+      </c>
+      <c r="I18" s="5">
+        <v>8700</v>
+      </c>
+      <c r="J18" s="5">
+        <v>9600</v>
+      </c>
+      <c r="K18" s="5">
+        <v>8600</v>
+      </c>
+      <c r="L18" s="5">
+        <v>8600</v>
+      </c>
+      <c r="M18" s="5">
+        <v>8100</v>
+      </c>
+      <c r="N18" s="5">
+        <v>9300</v>
+      </c>
+      <c r="O18" s="5">
+        <v>8800</v>
+      </c>
+      <c r="P18" s="5">
+        <v>8900</v>
+      </c>
+      <c r="Q18" s="5">
+        <v>8800</v>
+      </c>
+      <c r="R18" s="5">
+        <v>9200</v>
+      </c>
+      <c r="S18" s="5">
+        <v>9200</v>
+      </c>
+      <c r="T18" s="5">
+        <v>8500</v>
+      </c>
+      <c r="U18" s="5">
+        <v>9200</v>
+      </c>
+      <c r="V18" s="5">
+        <v>7800</v>
+      </c>
+      <c r="W18" s="5">
+        <v>7800</v>
+      </c>
+      <c r="X18" s="5">
+        <v>9500</v>
+      </c>
+      <c r="Y18" s="5">
+        <v>8000</v>
+      </c>
+      <c r="Z18" s="5">
+        <v>5400</v>
+      </c>
+      <c r="AA18" s="5">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="5">
+        <v>8200</v>
+      </c>
+      <c r="D19" s="5">
+        <v>9600</v>
+      </c>
+      <c r="E19" s="5">
+        <v>9000</v>
+      </c>
+      <c r="F19" s="5">
+        <v>9900</v>
+      </c>
+      <c r="G19" s="5">
+        <v>9300</v>
+      </c>
+      <c r="H19" s="5">
+        <v>7800</v>
+      </c>
+      <c r="I19" s="5">
+        <v>10100</v>
+      </c>
+      <c r="J19" s="5">
+        <v>10500</v>
+      </c>
+      <c r="K19" s="5">
+        <v>10000</v>
+      </c>
+      <c r="L19" s="5">
+        <v>8300</v>
+      </c>
+      <c r="M19" s="5">
+        <v>10200</v>
+      </c>
+      <c r="N19" s="5">
+        <v>9200</v>
+      </c>
+      <c r="O19" s="5">
+        <v>9000</v>
+      </c>
+      <c r="P19" s="5">
+        <v>9400</v>
+      </c>
+      <c r="Q19" s="5">
+        <v>9200</v>
+      </c>
+      <c r="R19" s="5">
+        <v>9000</v>
+      </c>
+      <c r="S19" s="5">
+        <v>9600</v>
+      </c>
+      <c r="T19" s="5">
+        <v>8400</v>
+      </c>
+      <c r="U19" s="5">
+        <v>8900</v>
+      </c>
+      <c r="V19" s="5">
+        <v>7100</v>
+      </c>
+      <c r="W19" s="5">
+        <v>8300</v>
+      </c>
+      <c r="X19" s="5">
+        <v>7200</v>
+      </c>
+      <c r="Y19" s="5">
+        <v>6400</v>
+      </c>
+      <c r="Z19" s="5">
+        <v>5700</v>
+      </c>
+      <c r="AA19" s="5">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A20" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="5">
+        <v>58400</v>
+      </c>
+      <c r="D20" s="5">
+        <v>62500</v>
+      </c>
+      <c r="E20" s="5">
+        <v>66500</v>
+      </c>
+      <c r="F20" s="5">
+        <v>66400</v>
+      </c>
+      <c r="G20" s="5">
+        <v>73600</v>
+      </c>
+      <c r="H20" s="5">
+        <v>70700</v>
+      </c>
+      <c r="I20" s="5">
+        <v>71300</v>
+      </c>
+      <c r="J20" s="5">
+        <v>70600</v>
+      </c>
+      <c r="K20" s="5">
+        <v>66400</v>
+      </c>
+      <c r="L20" s="5">
+        <v>68500</v>
+      </c>
+      <c r="M20" s="5">
+        <v>61600</v>
+      </c>
+      <c r="N20" s="5">
+        <v>59400</v>
+      </c>
+      <c r="O20" s="5">
+        <v>62300</v>
+      </c>
+      <c r="P20" s="5">
+        <v>58200</v>
+      </c>
+      <c r="Q20" s="5">
+        <v>54000</v>
+      </c>
+      <c r="R20" s="5">
+        <v>54000</v>
+      </c>
+      <c r="S20" s="5">
+        <v>57400</v>
+      </c>
+      <c r="T20" s="5">
+        <v>48700</v>
+      </c>
+      <c r="U20" s="5">
+        <v>48900</v>
+      </c>
+      <c r="V20" s="5">
+        <v>46200</v>
+      </c>
+      <c r="W20" s="5">
+        <v>51000</v>
+      </c>
+      <c r="X20" s="5">
+        <v>51100</v>
+      </c>
+      <c r="Y20" s="5">
+        <v>47900</v>
+      </c>
+      <c r="Z20" s="5">
+        <v>47000</v>
+      </c>
+      <c r="AA20" s="5">
+        <v>43100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A21" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" s="5">
+        <v>217300</v>
+      </c>
+      <c r="D21" s="5">
+        <v>217400</v>
+      </c>
+      <c r="E21" s="5">
+        <v>220300</v>
+      </c>
+      <c r="F21" s="5">
+        <v>208000</v>
+      </c>
+      <c r="G21" s="5">
+        <v>185400</v>
+      </c>
+      <c r="H21" s="5">
+        <v>167900</v>
+      </c>
+      <c r="I21" s="5">
         <v>156200</v>
       </c>
-      <c r="R14" s="5">
-        <v>157000</v>
-      </c>
-      <c r="S14" s="5">
-        <v>166100</v>
-      </c>
-      <c r="T14" s="5">
-        <v>166500</v>
-      </c>
-      <c r="U14" s="5">
-        <v>169100</v>
-      </c>
-      <c r="V14" s="5">
-        <v>181300</v>
-      </c>
-      <c r="W14" s="5">
-        <v>191300</v>
-      </c>
-      <c r="X14" s="5">
-        <v>183100</v>
-      </c>
-      <c r="Y14" s="5">
-        <v>179700</v>
-      </c>
-      <c r="Z14" s="5">
-        <v>160200</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A15" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="B15" s="5">
-        <v>102300</v>
-      </c>
-      <c r="C15" s="5">
-        <v>111300</v>
-      </c>
-      <c r="D15" s="5">
-        <v>115500</v>
-      </c>
-      <c r="E15" s="5">
-        <v>116900</v>
-      </c>
-      <c r="F15" s="5">
-        <v>119500</v>
-      </c>
-      <c r="G15" s="5">
-        <v>121500</v>
-      </c>
-      <c r="H15" s="5">
-        <v>111800</v>
-      </c>
-      <c r="I15" s="5">
-        <v>117400</v>
-      </c>
-      <c r="J15" s="5">
-        <v>110300</v>
-      </c>
-      <c r="K15" s="5">
-        <v>120100</v>
-      </c>
-      <c r="L15" s="5">
-        <v>122700</v>
-      </c>
-      <c r="M15" s="5">
-        <v>124100</v>
-      </c>
-      <c r="N15" s="5">
-        <v>126400</v>
-      </c>
-      <c r="O15" s="5">
-        <v>136600</v>
-      </c>
-      <c r="P15" s="5">
-        <v>140300</v>
-      </c>
-      <c r="Q15" s="5">
-        <v>142100</v>
-      </c>
-      <c r="R15" s="5">
-        <v>138100</v>
-      </c>
-      <c r="S15" s="5">
-        <v>135900</v>
-      </c>
-      <c r="T15" s="5">
-        <v>140100</v>
-      </c>
-      <c r="U15" s="5">
-        <v>138700</v>
-      </c>
-      <c r="V15" s="5">
-        <v>135300</v>
-      </c>
-      <c r="W15" s="5">
-        <v>133000</v>
-      </c>
-      <c r="X15" s="5">
-        <v>131900</v>
-      </c>
-      <c r="Y15" s="5">
-        <v>100400</v>
-      </c>
-      <c r="Z15" s="5">
-        <v>92100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A16" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="B16" s="5">
-        <v>67900</v>
-      </c>
-      <c r="C16" s="5">
-        <v>69800</v>
-      </c>
-      <c r="D16" s="5">
-        <v>69500</v>
-      </c>
-      <c r="E16" s="5">
-        <v>70400</v>
-      </c>
-      <c r="F16" s="5">
-        <v>71500</v>
-      </c>
-      <c r="G16" s="5">
-        <v>72700</v>
-      </c>
-      <c r="H16" s="5">
-        <v>76700</v>
-      </c>
-      <c r="I16" s="5">
-        <v>84100</v>
-      </c>
-      <c r="J16" s="5">
-        <v>77700</v>
-      </c>
-      <c r="K16" s="5">
-        <v>86600</v>
-      </c>
-      <c r="L16" s="5">
-        <v>88000</v>
-      </c>
-      <c r="M16" s="5">
-        <v>89700</v>
-      </c>
-      <c r="N16" s="5">
-        <v>86200</v>
-      </c>
-      <c r="O16" s="5">
-        <v>92100</v>
-      </c>
-      <c r="P16" s="5">
-        <v>89200</v>
-      </c>
-      <c r="Q16" s="5">
-        <v>88800</v>
-      </c>
-      <c r="R16" s="5">
-        <v>87500</v>
-      </c>
-      <c r="S16" s="5">
-        <v>79700</v>
-      </c>
-      <c r="T16" s="5">
-        <v>83100</v>
-      </c>
-      <c r="U16" s="5">
-        <v>83500</v>
-      </c>
-      <c r="V16" s="5">
-        <v>76700</v>
-      </c>
-      <c r="W16" s="5">
-        <v>69300</v>
-      </c>
-      <c r="X16" s="5">
-        <v>60000</v>
-      </c>
-      <c r="Y16" s="5">
-        <v>61700</v>
-      </c>
-      <c r="Z16" s="5">
-        <v>53300</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="B17" s="5">
-        <v>338300</v>
-      </c>
-      <c r="C17" s="5">
-        <v>314900</v>
-      </c>
-      <c r="D17" s="5">
-        <v>316800</v>
-      </c>
-      <c r="E17" s="5">
-        <v>303700</v>
-      </c>
-      <c r="F17" s="5">
-        <v>314600</v>
-      </c>
-      <c r="G17" s="5">
-        <v>308400</v>
-      </c>
-      <c r="H17" s="5">
-        <v>316700</v>
-      </c>
-      <c r="I17" s="5">
-        <v>310100</v>
-      </c>
-      <c r="J17" s="5">
-        <v>323200</v>
-      </c>
-      <c r="K17" s="5">
-        <v>306000</v>
-      </c>
-      <c r="L17" s="5">
-        <v>299200</v>
-      </c>
-      <c r="M17" s="5">
-        <v>287400</v>
-      </c>
-      <c r="N17" s="5">
-        <v>273100</v>
-      </c>
-      <c r="O17" s="5">
-        <v>262000</v>
-      </c>
-      <c r="P17" s="5">
-        <v>247100</v>
-      </c>
-      <c r="Q17" s="5">
-        <v>234800</v>
-      </c>
-      <c r="R17" s="5">
-        <v>229300</v>
-      </c>
-      <c r="S17" s="5">
-        <v>214300</v>
-      </c>
-      <c r="T17" s="5">
-        <v>208700</v>
-      </c>
-      <c r="U17" s="5">
-        <v>197000</v>
-      </c>
-      <c r="V17" s="5">
-        <v>197700</v>
-      </c>
-      <c r="W17" s="5">
-        <v>189300</v>
-      </c>
-      <c r="X17" s="5">
-        <v>188900</v>
-      </c>
-      <c r="Y17" s="5">
-        <v>174100</v>
-      </c>
-      <c r="Z17" s="5">
-        <v>132000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A18" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B18" s="5">
-        <v>248500</v>
-      </c>
-      <c r="C18" s="5">
-        <v>247000</v>
-      </c>
-      <c r="D18" s="5">
-        <v>228400</v>
-      </c>
-      <c r="E18" s="5">
-        <v>261500</v>
-      </c>
-      <c r="F18" s="5">
-        <v>229300</v>
-      </c>
-      <c r="G18" s="5">
-        <v>219800</v>
-      </c>
-      <c r="H18" s="5">
-        <v>209900</v>
-      </c>
-      <c r="I18" s="5">
-        <v>188100</v>
-      </c>
-      <c r="J18" s="5">
-        <v>189300</v>
-      </c>
-      <c r="K18" s="5">
-        <v>170600</v>
-      </c>
-      <c r="L18" s="5">
-        <v>173200</v>
-      </c>
-      <c r="M18" s="5">
-        <v>177600</v>
-      </c>
-      <c r="N18" s="5">
-        <v>157200</v>
-      </c>
-      <c r="O18" s="5">
-        <v>161000</v>
-      </c>
-      <c r="P18" s="5">
-        <v>160400</v>
-      </c>
-      <c r="Q18" s="5">
-        <v>152100</v>
-      </c>
-      <c r="R18" s="5">
-        <v>150500</v>
-      </c>
-      <c r="S18" s="5">
-        <v>135800</v>
-      </c>
-      <c r="T18" s="5">
-        <v>138800</v>
-      </c>
-      <c r="U18" s="5">
-        <v>138700</v>
-      </c>
-      <c r="V18" s="5">
-        <v>128500</v>
-      </c>
-      <c r="W18" s="5">
-        <v>119000</v>
-      </c>
-      <c r="X18" s="5">
-        <v>109800</v>
-      </c>
-      <c r="Y18" s="5">
-        <v>68400</v>
-      </c>
-      <c r="Z18" s="5">
-        <v>55300</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A19" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B19" s="5">
-        <v>82400</v>
-      </c>
-      <c r="C19" s="5">
-        <v>85300</v>
-      </c>
-      <c r="D19" s="5">
-        <v>89800</v>
-      </c>
-      <c r="E19" s="5">
-        <v>91100</v>
-      </c>
-      <c r="F19" s="5">
-        <v>96100</v>
-      </c>
-      <c r="G19" s="5">
-        <v>90500</v>
-      </c>
-      <c r="H19" s="5">
-        <v>92800</v>
-      </c>
-      <c r="I19" s="5">
-        <v>94000</v>
-      </c>
-      <c r="J19" s="5">
-        <v>87400</v>
-      </c>
-      <c r="K19" s="5">
-        <v>88200</v>
-      </c>
-      <c r="L19" s="5">
+      <c r="J21" s="5">
+        <v>146000</v>
+      </c>
+      <c r="K21" s="5">
+        <v>134800</v>
+      </c>
+      <c r="L21" s="5">
+        <v>124400</v>
+      </c>
+      <c r="M21" s="5">
+        <v>109500</v>
+      </c>
+      <c r="N21" s="5">
+        <v>114000</v>
+      </c>
+      <c r="O21" s="5">
+        <v>139900</v>
+      </c>
+      <c r="P21" s="5">
+        <v>115700</v>
+      </c>
+      <c r="Q21" s="5">
+        <v>109700</v>
+      </c>
+      <c r="R21" s="5">
+        <v>116400</v>
+      </c>
+      <c r="S21" s="5">
+        <v>112500</v>
+      </c>
+      <c r="T21" s="5">
+        <v>103300</v>
+      </c>
+      <c r="U21" s="5">
+        <v>96300</v>
+      </c>
+      <c r="V21" s="5">
+        <v>94800</v>
+      </c>
+      <c r="W21" s="5">
         <v>82700</v>
       </c>
-      <c r="M19" s="5">
-        <v>80700</v>
-      </c>
-      <c r="N19" s="5">
-        <v>83200</v>
-      </c>
-      <c r="O19" s="5">
-        <v>79500</v>
-      </c>
-      <c r="P19" s="5">
-        <v>74900</v>
-      </c>
-      <c r="Q19" s="5">
-        <v>75300</v>
-      </c>
-      <c r="R19" s="5">
-        <v>79000</v>
-      </c>
-      <c r="S19" s="5">
-        <v>70100</v>
-      </c>
-      <c r="T19" s="5">
-        <v>69600</v>
-      </c>
-      <c r="U19" s="5">
-        <v>63600</v>
-      </c>
-      <c r="V19" s="5">
-        <v>70000</v>
-      </c>
-      <c r="W19" s="5">
-        <v>70900</v>
-      </c>
-      <c r="X19" s="5">
-        <v>66300</v>
-      </c>
-      <c r="Y19" s="5">
-        <v>61800</v>
-      </c>
-      <c r="Z19" s="5">
-        <v>57100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A20" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="B20" s="5">
-        <v>5000</v>
-      </c>
-      <c r="C20" s="5">
-        <v>4000</v>
-      </c>
-      <c r="D20" s="5">
-        <v>4000</v>
-      </c>
-      <c r="E20" s="5">
-        <v>3700</v>
-      </c>
-      <c r="F20" s="5">
-        <v>3700</v>
-      </c>
-      <c r="G20" s="5">
-        <v>3200</v>
-      </c>
-      <c r="H20" s="5">
-        <v>2800</v>
-      </c>
-      <c r="I20" s="5">
-        <v>3300</v>
-      </c>
-      <c r="J20" s="5">
-        <v>2400</v>
-      </c>
-      <c r="K20" s="5">
-        <v>2800</v>
-      </c>
-      <c r="L20" s="5">
-        <v>2800</v>
-      </c>
-      <c r="M20" s="5">
-        <v>2800</v>
-      </c>
-      <c r="N20" s="5">
-        <v>3100</v>
-      </c>
-      <c r="O20" s="5">
-        <v>3000</v>
-      </c>
-      <c r="P20" s="5">
-        <v>3000</v>
-      </c>
-      <c r="Q20" s="5">
-        <v>3200</v>
-      </c>
-      <c r="R20" s="5">
-        <v>2800</v>
-      </c>
-      <c r="S20" s="5">
-        <v>3200</v>
-      </c>
-      <c r="T20" s="5">
-        <v>2600</v>
-      </c>
-      <c r="U20" s="5">
-        <v>2600</v>
-      </c>
-      <c r="V20" s="5">
-        <v>3000</v>
-      </c>
-      <c r="W20" s="5">
-        <v>3100</v>
-      </c>
-      <c r="X20" s="5">
-        <v>2900</v>
-      </c>
-      <c r="Y20" s="5">
-        <v>2700</v>
-      </c>
-      <c r="Z20" s="5">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A21" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="B21" s="5">
-        <v>10800</v>
-      </c>
-      <c r="C21" s="5">
-        <v>9200</v>
-      </c>
-      <c r="D21" s="5">
-        <v>10300</v>
-      </c>
-      <c r="E21" s="5">
-        <v>11100</v>
-      </c>
-      <c r="F21" s="5">
-        <v>9500</v>
-      </c>
-      <c r="G21" s="5">
-        <v>8700</v>
-      </c>
-      <c r="H21" s="5">
-        <v>8700</v>
-      </c>
-      <c r="I21" s="5">
-        <v>9600</v>
-      </c>
-      <c r="J21" s="5">
-        <v>8600</v>
-      </c>
-      <c r="K21" s="5">
-        <v>8600</v>
-      </c>
-      <c r="L21" s="5">
-        <v>8100</v>
-      </c>
-      <c r="M21" s="5">
-        <v>9300</v>
-      </c>
-      <c r="N21" s="5">
-        <v>8800</v>
-      </c>
-      <c r="O21" s="5">
-        <v>8900</v>
-      </c>
-      <c r="P21" s="5">
-        <v>8800</v>
-      </c>
-      <c r="Q21" s="5">
-        <v>9200</v>
-      </c>
-      <c r="R21" s="5">
-        <v>9200</v>
-      </c>
-      <c r="S21" s="5">
-        <v>8500</v>
-      </c>
-      <c r="T21" s="5">
-        <v>9200</v>
-      </c>
-      <c r="U21" s="5">
-        <v>7800</v>
-      </c>
-      <c r="V21" s="5">
-        <v>7800</v>
-      </c>
-      <c r="W21" s="5">
-        <v>9500</v>
-      </c>
       <c r="X21" s="5">
-        <v>8000</v>
+        <v>73200</v>
       </c>
       <c r="Y21" s="5">
-        <v>5400</v>
+        <v>75400</v>
       </c>
       <c r="Z21" s="5">
-        <v>5400</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
+        <v>38100</v>
+      </c>
+      <c r="AA21" s="5">
+        <v>34600</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="B22" s="5">
-        <v>8200</v>
+        <v>85</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="C22" s="5">
-        <v>9600</v>
+        <v>212600</v>
       </c>
       <c r="D22" s="5">
-        <v>9000</v>
+        <v>197400</v>
       </c>
       <c r="E22" s="5">
-        <v>9900</v>
+        <v>179100</v>
       </c>
       <c r="F22" s="5">
-        <v>9300</v>
+        <v>168600</v>
       </c>
       <c r="G22" s="5">
-        <v>7800</v>
+        <v>151500</v>
       </c>
       <c r="H22" s="5">
-        <v>10100</v>
+        <v>147600</v>
       </c>
       <c r="I22" s="5">
-        <v>10500</v>
+        <v>141700</v>
       </c>
       <c r="J22" s="5">
-        <v>10000</v>
+        <v>131600</v>
       </c>
       <c r="K22" s="5">
-        <v>8300</v>
+        <v>128700</v>
       </c>
       <c r="L22" s="5">
-        <v>10200</v>
+        <v>124800</v>
       </c>
       <c r="M22" s="5">
-        <v>9200</v>
+        <v>128600</v>
       </c>
       <c r="N22" s="5">
-        <v>9000</v>
+        <v>126000</v>
       </c>
       <c r="O22" s="5">
-        <v>9400</v>
+        <v>123600</v>
       </c>
       <c r="P22" s="5">
-        <v>9200</v>
+        <v>119300</v>
       </c>
       <c r="Q22" s="5">
-        <v>9000</v>
+        <v>113300</v>
       </c>
       <c r="R22" s="5">
-        <v>9600</v>
+        <v>109100</v>
       </c>
       <c r="S22" s="5">
-        <v>8400</v>
+        <v>100200</v>
       </c>
       <c r="T22" s="5">
-        <v>8900</v>
+        <v>111200</v>
       </c>
       <c r="U22" s="5">
-        <v>7100</v>
+        <v>100800</v>
       </c>
       <c r="V22" s="5">
-        <v>8300</v>
+        <v>103500</v>
       </c>
       <c r="W22" s="5">
-        <v>7200</v>
+        <v>92400</v>
       </c>
       <c r="X22" s="5">
-        <v>6400</v>
+        <v>88300</v>
       </c>
       <c r="Y22" s="5">
-        <v>5700</v>
+        <v>94100</v>
       </c>
       <c r="Z22" s="5">
-        <v>5500</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A23" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="B23" s="5">
-        <v>58400</v>
-      </c>
-      <c r="C23" s="5">
-        <v>62500</v>
-      </c>
-      <c r="D23" s="5">
-        <v>66500</v>
-      </c>
-      <c r="E23" s="5">
-        <v>66400</v>
-      </c>
-      <c r="F23" s="5">
-        <v>73600</v>
-      </c>
-      <c r="G23" s="5">
-        <v>70700</v>
-      </c>
-      <c r="H23" s="5">
-        <v>71300</v>
-      </c>
-      <c r="I23" s="5">
-        <v>70600</v>
-      </c>
-      <c r="J23" s="5">
-        <v>66400</v>
-      </c>
-      <c r="K23" s="5">
-        <v>68500</v>
-      </c>
-      <c r="L23" s="5">
-        <v>61600</v>
-      </c>
-      <c r="M23" s="5">
-        <v>59400</v>
-      </c>
-      <c r="N23" s="5">
-        <v>62300</v>
-      </c>
-      <c r="O23" s="5">
-        <v>58200</v>
-      </c>
-      <c r="P23" s="5">
-        <v>54000</v>
-      </c>
-      <c r="Q23" s="5">
-        <v>54000</v>
-      </c>
-      <c r="R23" s="5">
-        <v>57400</v>
-      </c>
-      <c r="S23" s="5">
-        <v>48700</v>
-      </c>
-      <c r="T23" s="5">
-        <v>48900</v>
-      </c>
-      <c r="U23" s="5">
-        <v>46200</v>
-      </c>
-      <c r="V23" s="5">
-        <v>51000</v>
-      </c>
-      <c r="W23" s="5">
-        <v>51100</v>
-      </c>
-      <c r="X23" s="5">
-        <v>47900</v>
-      </c>
-      <c r="Y23" s="5">
-        <v>47000</v>
-      </c>
-      <c r="Z23" s="5">
-        <v>43100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A24" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B24" s="5">
-        <v>217300</v>
-      </c>
-      <c r="C24" s="5">
-        <v>217400</v>
-      </c>
-      <c r="D24" s="5">
-        <v>220300</v>
-      </c>
-      <c r="E24" s="5">
-        <v>208000</v>
-      </c>
-      <c r="F24" s="5">
-        <v>185400</v>
-      </c>
-      <c r="G24" s="5">
-        <v>167900</v>
-      </c>
-      <c r="H24" s="5">
-        <v>156200</v>
-      </c>
-      <c r="I24" s="5">
-        <v>146000</v>
-      </c>
-      <c r="J24" s="5">
-        <v>134800</v>
-      </c>
-      <c r="K24" s="5">
-        <v>124400</v>
-      </c>
-      <c r="L24" s="5">
-        <v>109500</v>
-      </c>
-      <c r="M24" s="5">
-        <v>114000</v>
-      </c>
-      <c r="N24" s="5">
-        <v>139900</v>
-      </c>
-      <c r="O24" s="5">
-        <v>115700</v>
-      </c>
-      <c r="P24" s="5">
-        <v>109700</v>
-      </c>
-      <c r="Q24" s="5">
-        <v>116400</v>
-      </c>
-      <c r="R24" s="5">
-        <v>112500</v>
-      </c>
-      <c r="S24" s="5">
-        <v>103300</v>
-      </c>
-      <c r="T24" s="5">
-        <v>96300</v>
-      </c>
-      <c r="U24" s="5">
-        <v>94800</v>
-      </c>
-      <c r="V24" s="5">
-        <v>82700</v>
-      </c>
-      <c r="W24" s="5">
-        <v>73200</v>
-      </c>
-      <c r="X24" s="5">
-        <v>75400</v>
-      </c>
-      <c r="Y24" s="5">
-        <v>38100</v>
-      </c>
-      <c r="Z24" s="5">
-        <v>34600</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A25" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B25" s="5">
-        <v>212600</v>
-      </c>
-      <c r="C25" s="5">
-        <v>197400</v>
-      </c>
-      <c r="D25" s="5">
-        <v>179100</v>
-      </c>
-      <c r="E25" s="5">
-        <v>168600</v>
-      </c>
-      <c r="F25" s="5">
-        <v>151500</v>
-      </c>
-      <c r="G25" s="5">
-        <v>147600</v>
-      </c>
-      <c r="H25" s="5">
-        <v>141700</v>
-      </c>
-      <c r="I25" s="5">
-        <v>131600</v>
-      </c>
-      <c r="J25" s="5">
-        <v>128700</v>
-      </c>
-      <c r="K25" s="5">
-        <v>124800</v>
-      </c>
-      <c r="L25" s="5">
-        <v>128600</v>
-      </c>
-      <c r="M25" s="5">
-        <v>126000</v>
-      </c>
-      <c r="N25" s="5">
-        <v>123600</v>
-      </c>
-      <c r="O25" s="5">
-        <v>119300</v>
-      </c>
-      <c r="P25" s="5">
-        <v>113300</v>
-      </c>
-      <c r="Q25" s="5">
-        <v>109100</v>
-      </c>
-      <c r="R25" s="5">
-        <v>100200</v>
-      </c>
-      <c r="S25" s="5">
-        <v>111200</v>
-      </c>
-      <c r="T25" s="5">
-        <v>100800</v>
-      </c>
-      <c r="U25" s="5">
-        <v>103500</v>
-      </c>
-      <c r="V25" s="5">
-        <v>92400</v>
-      </c>
-      <c r="W25" s="5">
-        <v>88300</v>
-      </c>
-      <c r="X25" s="5">
-        <v>94100</v>
-      </c>
-      <c r="Y25" s="5">
         <v>81200</v>
       </c>
-      <c r="Z25" s="5">
+      <c r="AA22" s="5">
         <v>75000</v>
       </c>
     </row>
-    <row r="27" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="6" t="s">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="C23" s="8"/>
+    </row>
+    <row r="24" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.35">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.35">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.35">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.35">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>92</v>
+        <v>174</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>173</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>174</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>175</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>93</v>
+        <v>176</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>94</v>
+        <v>177</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>177</v>
+        <v>102</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>102</v>
+        <v>179</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>178</v>
+        <v>102</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>102</v>
+        <v>180</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>179</v>
+        <v>102</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>97</v>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="6" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
         <v>79</v>
       </c>
     </row>
